--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1277910.060994498</v>
+        <v>1287071.464495393</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10443096.40768783</v>
+        <v>10443096.40768782</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>17.14295515814639</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.73781428868822</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.364635083861</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
         <v>192.0665623188214</v>
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>95.28370359549733</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>140.6450032557391</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>264.3750251656595</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>198.9430992003375</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705128</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>130.2982653035239</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>142.6946548021062</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>307.4270694733917</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>105.7863297480632</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542836</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>196.4017961483592</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>289.8681104214113</v>
       </c>
       <c r="C11" t="n">
-        <v>162.0216793824587</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>90.41948680756609</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>66.41220336022552</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>232.8770887703525</v>
+        <v>33.38304376058925</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>78.58151650834253</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>192.8335951560907</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>294.8783573633378</v>
       </c>
       <c r="G17" t="n">
-        <v>396.2429621606558</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>128.2808324720645</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>47.41254713315928</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>261.7337600035945</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>58.92805047992061</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491558</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>350.7087471324861</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.77443380478225</v>
+        <v>83.77443380478222</v>
       </c>
       <c r="T23" t="n">
-        <v>195.0617516471506</v>
+        <v>199.03604613535</v>
       </c>
       <c r="U23" t="n">
         <v>250.905953473387</v>
@@ -2414,7 +2414,7 @@
         <v>134.4027679385879</v>
       </c>
       <c r="H24" t="n">
-        <v>83.83399777763974</v>
+        <v>83.83399777763972</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.3072997278744</v>
       </c>
       <c r="I25" t="n">
-        <v>81.30841035179638</v>
+        <v>81.30841035179637</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.43890183961375</v>
+        <v>66.43890183961373</v>
       </c>
       <c r="S25" t="n">
         <v>181.0509578340822</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.77443380478225</v>
+        <v>83.77443380478222</v>
       </c>
       <c r="T26" t="n">
-        <v>195.0617516471524</v>
+        <v>199.03604613535</v>
       </c>
       <c r="U26" t="n">
         <v>250.905953473387</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>323.7779639819379</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2651,7 +2651,7 @@
         <v>134.4027679385879</v>
       </c>
       <c r="H27" t="n">
-        <v>83.83399777763974</v>
+        <v>83.83399777763972</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.525553994704</v>
       </c>
       <c r="H28" t="n">
-        <v>35.04753201852803</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.30841035179637</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4114992376929</v>
+        <v>102.9940118820764</v>
       </c>
       <c r="U28" t="n">
         <v>286.184551609377</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8064945845168</v>
       </c>
       <c r="H29" t="n">
-        <v>279.2121097143754</v>
+        <v>279.2121097143746</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.77443380478225</v>
+        <v>83.77443380478222</v>
       </c>
       <c r="T29" t="n">
         <v>199.03604613535</v>
@@ -2888,7 +2888,7 @@
         <v>134.4027679385879</v>
       </c>
       <c r="H30" t="n">
-        <v>83.83399777763974</v>
+        <v>83.83399777763972</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.525553994704</v>
+        <v>25.50403730100923</v>
       </c>
       <c r="H31" t="n">
         <v>140.3072997278744</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.30841035179637</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.43890183961375</v>
+        <v>66.43890183961373</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T31" t="n">
         <v>217.4114992376929</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.28400133850305</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8064945845168</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1864042025732</v>
+        <v>279.2121097143763</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.77443380478225</v>
+        <v>83.77443380478222</v>
       </c>
       <c r="T32" t="n">
-        <v>195.0617516471524</v>
+        <v>199.03604613535</v>
       </c>
       <c r="U32" t="n">
         <v>250.905953473387</v>
@@ -3125,7 +3125,7 @@
         <v>134.4027679385879</v>
       </c>
       <c r="H33" t="n">
-        <v>83.83399777763974</v>
+        <v>83.83399777763972</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>56.19249621172056</v>
+        <v>81.59419338597598</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.525553994704</v>
       </c>
       <c r="H34" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.43890183961375</v>
+        <v>66.43890183961373</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T34" t="n">
         <v>217.4114992376929</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>378.7595471752818</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>409.8064945845168</v>
       </c>
       <c r="H35" t="n">
-        <v>279.2121097143754</v>
+        <v>283.1864042025732</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.77443380478225</v>
+        <v>83.77443380478222</v>
       </c>
       <c r="T35" t="n">
         <v>199.03604613535</v>
@@ -3362,7 +3362,7 @@
         <v>134.4027679385879</v>
       </c>
       <c r="H36" t="n">
-        <v>83.83399777763974</v>
+        <v>83.83399777763972</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.525553994704</v>
       </c>
       <c r="H37" t="n">
-        <v>81.59419338597598</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.30841035179637</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.43890183961375</v>
+        <v>66.43890183961373</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4114992376929</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>32.50300381219697</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>377.956075584064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.77443380478225</v>
+        <v>79.8001393165854</v>
       </c>
       <c r="T38" t="n">
         <v>199.03604613535</v>
@@ -3599,7 +3599,7 @@
         <v>134.4027679385879</v>
       </c>
       <c r="H39" t="n">
-        <v>83.83399777763974</v>
+        <v>83.83399777763972</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>52.92014571451814</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T40" t="n">
         <v>217.4114992376929</v>
       </c>
       <c r="U40" t="n">
-        <v>174.798120981336</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8064945845168</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1864042025732</v>
+        <v>279.2121097143763</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>79.80013931658449</v>
+        <v>83.77443380478222</v>
       </c>
       <c r="T41" t="n">
         <v>199.03604613535</v>
@@ -3836,7 +3836,7 @@
         <v>134.4027679385879</v>
       </c>
       <c r="H42" t="n">
-        <v>83.83399777763974</v>
+        <v>83.83399777763972</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>73.06775605778545</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.43890183961373</v>
       </c>
       <c r="S43" t="n">
-        <v>54.13912336666291</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T43" t="n">
         <v>217.4114992376929</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>79.80013931658449</v>
+        <v>83.77443380478222</v>
       </c>
       <c r="T44" t="n">
         <v>199.03604613535</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>345.2666742292161</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4073,7 +4073,7 @@
         <v>134.4027679385879</v>
       </c>
       <c r="H45" t="n">
-        <v>83.83399777763974</v>
+        <v>83.83399777763972</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.525553994704</v>
+        <v>124.3784239564926</v>
       </c>
       <c r="H46" t="n">
         <v>140.3072997278744</v>
       </c>
       <c r="I46" t="n">
-        <v>81.30841035179638</v>
+        <v>81.30841035179637</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>107.4683429800011</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4114992376929</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1550.959102576163</v>
+        <v>1604.229622059684</v>
       </c>
       <c r="C2" t="n">
-        <v>1181.996585635751</v>
+        <v>1235.267105119272</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.996585635751</v>
+        <v>877.001406512522</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>491.2131539142777</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>80.22724912467015</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>68.56290288936309</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2509.068808916634</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2509.068808916634</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2255.487748180813</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1924.424860837243</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1924.424860837243</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X2" t="n">
-        <v>1550.959102576163</v>
+        <v>1604.229622059684</v>
       </c>
       <c r="Y2" t="n">
-        <v>1550.959102576163</v>
+        <v>1604.229622059684</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605191</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919908</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4451,7 +4451,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>768.6303371471284</v>
+        <v>1035.190426598854</v>
       </c>
       <c r="C4" t="n">
-        <v>768.6303371471284</v>
+        <v>866.2542436709475</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>716.1376042586118</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>568.2245106762186</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>421.3345631783083</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>253.3480984865868</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1494.380460220216</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1494.380460220216</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V4" t="n">
-        <v>1239.695972014329</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="W4" t="n">
-        <v>950.2788019773682</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="X4" t="n">
-        <v>950.2788019773682</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="Y4" t="n">
-        <v>950.2788019773682</v>
+        <v>1216.838891429094</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1842.29463946833</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C5" t="n">
-        <v>1473.332122527918</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D5" t="n">
-        <v>1115.066423921168</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>729.2781713229233</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>318.2922665333157</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800313</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764998</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.894479532451</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.894479532451</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="X5" t="n">
-        <v>2228.894479532451</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="Y5" t="n">
-        <v>2228.894479532451</v>
+        <v>2361.386702945269</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542615</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148806</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.144689175691</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182532</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812058019</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429764</v>
+        <v>614.5430248380233</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744482</v>
+        <v>909.246581869495</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733668</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330614</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506776</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.02341329261</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400156</v>
@@ -4673,25 +4673,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>477.6642370458055</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>477.6642370458055</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>477.6642370458055</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>329.7511434634123</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>182.861195965502</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4734,7 +4734,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1492.310105122875</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1269.331624317611</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1269.331624317611</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V7" t="n">
-        <v>1269.331624317611</v>
+        <v>767.0814070827661</v>
       </c>
       <c r="W7" t="n">
-        <v>1269.331624317611</v>
+        <v>477.6642370458055</v>
       </c>
       <c r="X7" t="n">
-        <v>1269.331624317611</v>
+        <v>477.6642370458055</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>477.6642370458055</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1158.553337363321</v>
+        <v>1324.80586733131</v>
       </c>
       <c r="C8" t="n">
-        <v>1158.553337363321</v>
+        <v>1324.80586733131</v>
       </c>
       <c r="D8" t="n">
-        <v>1158.553337363321</v>
+        <v>966.5401687245592</v>
       </c>
       <c r="E8" t="n">
-        <v>772.7650847650771</v>
+        <v>580.7519161263149</v>
       </c>
       <c r="F8" t="n">
-        <v>361.7791799754695</v>
+        <v>169.7660113367073</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>158.1016651014003</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.758267664335</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>2308.758267664335</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X8" t="n">
-        <v>1935.292509403255</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y8" t="n">
-        <v>1545.153177427443</v>
+        <v>1711.405707395431</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>801.944955774447</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330612</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657496</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378427</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255069</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431138</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452035</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2139.863183736037</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993395</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267231</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V11" t="n">
-        <v>2866.097597267231</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W11" t="n">
-        <v>2513.328941997117</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X11" t="n">
-        <v>2139.863183736037</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y11" t="n">
-        <v>2139.863183736037</v>
+        <v>1514.348043559524</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>452.6479724696244</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C13" t="n">
-        <v>452.6479724696244</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D13" t="n">
-        <v>452.6479724696244</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E13" t="n">
-        <v>304.7348788872313</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F13" t="n">
-        <v>157.8449313893209</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.60866391532</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484846</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046023</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676417</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696244</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y13" t="n">
-        <v>452.6479724696244</v>
+        <v>385.564938772426</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1477.112184968822</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C14" t="n">
-        <v>1108.149668028411</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>749.8839694216604</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>364.0957168234162</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810557</v>
@@ -5290,7 +5290,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5314,16 +5314,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V14" t="n">
-        <v>2980.08577053995</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="W14" t="n">
-        <v>2627.317115269836</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X14" t="n">
-        <v>2253.851357008756</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y14" t="n">
-        <v>1863.712025032944</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.3980557622424</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="C16" t="n">
-        <v>678.4618728343355</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D16" t="n">
-        <v>528.3452334219998</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E16" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5436,16 +5436,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1732.513138839916</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1732.513138839916</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1477.828650634029</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W16" t="n">
-        <v>1477.828650634029</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X16" t="n">
-        <v>1249.839099736012</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.046520592482</v>
+        <v>590.8070661251686</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1491.569348694473</v>
+        <v>1774.969111598457</v>
       </c>
       <c r="C17" t="n">
-        <v>1122.606831754061</v>
+        <v>1406.006594658045</v>
       </c>
       <c r="D17" t="n">
-        <v>764.341133147311</v>
+        <v>1047.740896051295</v>
       </c>
       <c r="E17" t="n">
-        <v>764.341133147311</v>
+        <v>661.9526434530503</v>
       </c>
       <c r="F17" t="n">
-        <v>764.341133147311</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.542934265601</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W17" t="n">
-        <v>2641.774278995486</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.308520734407</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y17" t="n">
-        <v>1878.169188758595</v>
+        <v>2161.568951662578</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,7 +5612,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>994.2880032601528</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3518203322459</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2351809199101</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>527.322087337517</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1516.201608216216</v>
       </c>
       <c r="U19" t="n">
-        <v>1927.294548088493</v>
+        <v>1227.09874134186</v>
       </c>
       <c r="V19" t="n">
-        <v>1672.610059882606</v>
+        <v>972.4142531359726</v>
       </c>
       <c r="W19" t="n">
-        <v>1624.71859813194</v>
+        <v>682.9970830990119</v>
       </c>
       <c r="X19" t="n">
-        <v>1396.729047233923</v>
+        <v>455.0075322009945</v>
       </c>
       <c r="Y19" t="n">
-        <v>1175.936468090393</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1976.204921733553</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1337.88200728809</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>952.0937546898456</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>541.1078499002381</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>126.0353997452345</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5785,19 +5785,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066531</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W20" t="n">
-        <v>2630.721789066531</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X20" t="n">
-        <v>2630.721789066531</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y20" t="n">
-        <v>2240.582457090719</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="21">
@@ -5934,10 +5934,10 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1751.913851851648</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
         <v>1530.147236421175</v>
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759161</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.769922695716</v>
+        <v>1944.75548381875</v>
       </c>
       <c r="D23" t="n">
         <v>1590.504224088966</v>
@@ -5977,64 +5977,64 @@
         <v>1204.715971490722</v>
       </c>
       <c r="F23" t="n">
-        <v>793.730066701114</v>
+        <v>793.7300667011141</v>
       </c>
       <c r="G23" t="n">
-        <v>379.7841125753393</v>
+        <v>379.7841125753394</v>
       </c>
       <c r="H23" t="n">
-        <v>93.73723964344725</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I23" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557821</v>
       </c>
       <c r="J23" t="n">
-        <v>377.7275109623934</v>
+        <v>377.7275109623924</v>
       </c>
       <c r="K23" t="n">
-        <v>851.9898429966358</v>
+        <v>851.9898429966352</v>
       </c>
       <c r="L23" t="n">
         <v>1477.25596488715</v>
       </c>
       <c r="M23" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818161</v>
       </c>
       <c r="N23" t="n">
-        <v>2948.436788907898</v>
+        <v>2948.436788907899</v>
       </c>
       <c r="O23" t="n">
-        <v>3637.43410966587</v>
+        <v>3637.434109665871</v>
       </c>
       <c r="P23" t="n">
-        <v>4190.976381557453</v>
+        <v>4190.976381557455</v>
       </c>
       <c r="Q23" t="n">
-        <v>4558.49082831781</v>
+        <v>4558.490828317813</v>
       </c>
       <c r="R23" t="n">
-        <v>4686.861982172362</v>
+        <v>4686.861982172365</v>
       </c>
       <c r="S23" t="n">
-        <v>4602.241341965511</v>
+        <v>4602.241341965514</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717685</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.75447367386</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330289</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060175</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.471611676062</v>
+        <v>3090.457172799095</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.317840823283</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.337869055535</v>
+        <v>943.3378690555352</v>
       </c>
       <c r="C24" t="n">
-        <v>768.884839774408</v>
+        <v>768.8848397744082</v>
       </c>
       <c r="D24" t="n">
-        <v>619.9504301131567</v>
+        <v>619.9504301131569</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7129751077013</v>
+        <v>460.7129751077014</v>
       </c>
       <c r="F24" t="n">
         <v>314.1784171345863</v>
@@ -6062,25 +6062,25 @@
         <v>178.418045479447</v>
       </c>
       <c r="H24" t="n">
-        <v>93.73723964344725</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I24" t="n">
-        <v>95.44706852746408</v>
+        <v>95.44706852746414</v>
       </c>
       <c r="J24" t="n">
-        <v>244.9357666236177</v>
+        <v>244.9357666236178</v>
       </c>
       <c r="K24" t="n">
-        <v>578.590586604384</v>
+        <v>578.5905866043843</v>
       </c>
       <c r="L24" t="n">
         <v>1073.553208785908</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.508111165358</v>
+        <v>1670.508111165359</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.67127843179</v>
+        <v>2001.52673729672</v>
       </c>
       <c r="O24" t="n">
         <v>2553.038713876677</v>
@@ -6144,16 +6144,16 @@
         <v>175.8669470695042</v>
       </c>
       <c r="I25" t="n">
-        <v>93.73723964344725</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="J25" t="n">
-        <v>173.8741688132294</v>
+        <v>173.8741688132295</v>
       </c>
       <c r="K25" t="n">
-        <v>435.4005972446799</v>
+        <v>435.4005972446801</v>
       </c>
       <c r="L25" t="n">
-        <v>825.5908198420037</v>
+        <v>825.5908198420038</v>
       </c>
       <c r="M25" t="n">
         <v>1247.380823959239</v>
@@ -6214,52 +6214,52 @@
         <v>1204.715971490722</v>
       </c>
       <c r="F26" t="n">
-        <v>793.730066701114</v>
+        <v>793.7300667011141</v>
       </c>
       <c r="G26" t="n">
-        <v>379.7841125753393</v>
+        <v>379.7841125753394</v>
       </c>
       <c r="H26" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I26" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557821</v>
       </c>
       <c r="J26" t="n">
-        <v>377.7275109623929</v>
+        <v>377.7275109623924</v>
       </c>
       <c r="K26" t="n">
-        <v>851.9898429966356</v>
+        <v>851.9898429966352</v>
       </c>
       <c r="L26" t="n">
         <v>1477.25596488715</v>
       </c>
       <c r="M26" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818161</v>
       </c>
       <c r="N26" t="n">
         <v>2948.436788907899</v>
       </c>
       <c r="O26" t="n">
-        <v>3637.43410966587</v>
+        <v>3637.434109665871</v>
       </c>
       <c r="P26" t="n">
-        <v>4190.976381557453</v>
+        <v>4190.976381557455</v>
       </c>
       <c r="Q26" t="n">
-        <v>4558.490828317812</v>
+        <v>4558.490828317813</v>
       </c>
       <c r="R26" t="n">
-        <v>4686.861982172364</v>
+        <v>4686.861982172365</v>
       </c>
       <c r="S26" t="n">
-        <v>4602.241341965513</v>
+        <v>4602.241341965514</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717685</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.75447367386</v>
       </c>
       <c r="V26" t="n">
         <v>3820.706025207256</v>
@@ -6299,25 +6299,25 @@
         <v>178.418045479447</v>
       </c>
       <c r="H27" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I27" t="n">
-        <v>95.44706852746411</v>
+        <v>95.44706852746414</v>
       </c>
       <c r="J27" t="n">
         <v>244.9357666236178</v>
       </c>
       <c r="K27" t="n">
-        <v>578.5905866043842</v>
+        <v>578.5905866043843</v>
       </c>
       <c r="L27" t="n">
         <v>1073.553208785908</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.508111165358</v>
+        <v>1670.508111165359</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.67127843179</v>
+        <v>2001.52673729672</v>
       </c>
       <c r="O27" t="n">
         <v>2553.038713876677</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.2790862626427</v>
+        <v>1098.644884957301</v>
       </c>
       <c r="C28" t="n">
-        <v>593.3429033347359</v>
+        <v>929.7087020293943</v>
       </c>
       <c r="D28" t="n">
-        <v>443.2262639224001</v>
+        <v>779.5920626170586</v>
       </c>
       <c r="E28" t="n">
-        <v>443.2262639224001</v>
+        <v>631.6789690346654</v>
       </c>
       <c r="F28" t="n">
-        <v>296.3363164244897</v>
+        <v>484.7890215367551</v>
       </c>
       <c r="G28" t="n">
-        <v>129.1387871369099</v>
+        <v>317.5914922491753</v>
       </c>
       <c r="H28" t="n">
-        <v>93.73723964344728</v>
+        <v>175.8669470695042</v>
       </c>
       <c r="I28" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="J28" t="n">
         <v>173.8741688132295</v>
       </c>
       <c r="K28" t="n">
-        <v>435.4005972446799</v>
+        <v>435.4005972446801</v>
       </c>
       <c r="L28" t="n">
         <v>825.5908198420038</v>
@@ -6414,22 +6414,22 @@
         <v>2445.494219020783</v>
       </c>
       <c r="T28" t="n">
-        <v>2225.886644033214</v>
+        <v>2341.459863584342</v>
       </c>
       <c r="U28" t="n">
-        <v>1936.811339377278</v>
+        <v>2052.384558928406</v>
       </c>
       <c r="V28" t="n">
-        <v>1682.126851171391</v>
+        <v>1797.700070722519</v>
       </c>
       <c r="W28" t="n">
-        <v>1392.70968113443</v>
+        <v>1508.282900685558</v>
       </c>
       <c r="X28" t="n">
-        <v>1164.720130236413</v>
+        <v>1280.293349787541</v>
       </c>
       <c r="Y28" t="n">
-        <v>943.9275510928825</v>
+        <v>1280.293349787541</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2313.718000759161</v>
+        <v>2313.71800075916</v>
       </c>
       <c r="C29" t="n">
-        <v>1944.755483818749</v>
+        <v>1944.755483818748</v>
       </c>
       <c r="D29" t="n">
         <v>1586.489785211998</v>
       </c>
       <c r="E29" t="n">
-        <v>1200.701532613754</v>
+        <v>1200.701532613753</v>
       </c>
       <c r="F29" t="n">
-        <v>789.7156278241466</v>
+        <v>789.7156278241457</v>
       </c>
       <c r="G29" t="n">
-        <v>375.769673698372</v>
+        <v>375.7696736983711</v>
       </c>
       <c r="H29" t="n">
-        <v>93.73723964344728</v>
+        <v>93.73723964344727</v>
       </c>
       <c r="I29" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557838</v>
       </c>
       <c r="J29" t="n">
-        <v>377.7275109623934</v>
+        <v>377.7275109623931</v>
       </c>
       <c r="K29" t="n">
-        <v>851.9898429966358</v>
+        <v>851.9898429966347</v>
       </c>
       <c r="L29" t="n">
         <v>1477.25596488715</v>
@@ -6478,34 +6478,34 @@
         <v>2948.436788907899</v>
       </c>
       <c r="O29" t="n">
-        <v>3637.434109665871</v>
+        <v>3637.43410966587</v>
       </c>
       <c r="P29" t="n">
-        <v>4190.976381557454</v>
+        <v>4190.976381557453</v>
       </c>
       <c r="Q29" t="n">
-        <v>4558.490828317812</v>
+        <v>4558.490828317811</v>
       </c>
       <c r="R29" t="n">
-        <v>4686.861982172364</v>
+        <v>4686.861982172363</v>
       </c>
       <c r="S29" t="n">
-        <v>4602.241341965513</v>
+        <v>4602.241341965512</v>
       </c>
       <c r="T29" t="n">
         <v>4401.194830717684</v>
       </c>
       <c r="U29" t="n">
-        <v>4147.754473673859</v>
+        <v>4147.754473673858</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.691586330288</v>
+        <v>3816.691586330287</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.922931060174</v>
+        <v>3463.922931060173</v>
       </c>
       <c r="X29" t="n">
-        <v>3090.457172799094</v>
+        <v>3090.457172799093</v>
       </c>
       <c r="Y29" t="n">
         <v>2700.317840823282</v>
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3378690555352</v>
+        <v>943.337869055535</v>
       </c>
       <c r="C30" t="n">
-        <v>768.8848397744082</v>
+        <v>768.884839774408</v>
       </c>
       <c r="D30" t="n">
-        <v>619.9504301131569</v>
+        <v>619.9504301131567</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7129751077014</v>
+        <v>460.7129751077013</v>
       </c>
       <c r="F30" t="n">
         <v>314.1784171345863</v>
@@ -6536,7 +6536,7 @@
         <v>178.418045479447</v>
       </c>
       <c r="H30" t="n">
-        <v>93.73723964344728</v>
+        <v>93.73723964344727</v>
       </c>
       <c r="I30" t="n">
         <v>95.44706852746411</v>
@@ -6545,13 +6545,13 @@
         <v>244.9357666236178</v>
       </c>
       <c r="K30" t="n">
-        <v>578.5905866043842</v>
+        <v>578.5905866043843</v>
       </c>
       <c r="L30" t="n">
         <v>1073.553208785908</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.508111165358</v>
+        <v>1670.508111165359</v>
       </c>
       <c r="N30" t="n">
         <v>2297.67127843179</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.515177531244</v>
+        <v>512.2893290164855</v>
       </c>
       <c r="C31" t="n">
-        <v>847.5789946033374</v>
+        <v>343.3531460885786</v>
       </c>
       <c r="D31" t="n">
-        <v>697.4623551910016</v>
+        <v>343.3531460885786</v>
       </c>
       <c r="E31" t="n">
-        <v>549.5492616086085</v>
+        <v>343.3531460885786</v>
       </c>
       <c r="F31" t="n">
-        <v>402.6593141106981</v>
+        <v>343.3531460885786</v>
       </c>
       <c r="G31" t="n">
-        <v>235.4617848231184</v>
+        <v>317.5914922491753</v>
       </c>
       <c r="H31" t="n">
-        <v>93.73723964344728</v>
+        <v>175.8669470695042</v>
       </c>
       <c r="I31" t="n">
-        <v>93.73723964344728</v>
+        <v>93.73723964344727</v>
       </c>
       <c r="J31" t="n">
         <v>173.8741688132295</v>
       </c>
       <c r="K31" t="n">
-        <v>435.4005972446799</v>
+        <v>435.4005972446801</v>
       </c>
       <c r="L31" t="n">
         <v>825.5908198420038</v>
@@ -6648,25 +6648,25 @@
         <v>2378.384217162587</v>
       </c>
       <c r="S31" t="n">
-        <v>2378.384217162587</v>
+        <v>2195.504461774625</v>
       </c>
       <c r="T31" t="n">
-        <v>2158.776642175018</v>
+        <v>1975.896886787057</v>
       </c>
       <c r="U31" t="n">
-        <v>1869.701337519082</v>
+        <v>1686.82158213112</v>
       </c>
       <c r="V31" t="n">
-        <v>1615.016849313195</v>
+        <v>1432.137093925233</v>
       </c>
       <c r="W31" t="n">
-        <v>1325.599679276234</v>
+        <v>1142.719923888273</v>
       </c>
       <c r="X31" t="n">
-        <v>1097.610128378217</v>
+        <v>914.7303729902553</v>
       </c>
       <c r="Y31" t="n">
-        <v>1016.515177531244</v>
+        <v>693.9377938467252</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759161</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.769922695716</v>
+        <v>1944.75548381875</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.504224088966</v>
+        <v>1586.489785211999</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.715971490722</v>
+        <v>1200.701532613755</v>
       </c>
       <c r="F32" t="n">
-        <v>793.730066701114</v>
+        <v>789.7156278241475</v>
       </c>
       <c r="G32" t="n">
-        <v>379.7841125753393</v>
+        <v>375.7696736983729</v>
       </c>
       <c r="H32" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I32" t="n">
-        <v>95.14107549557821</v>
+        <v>95.14107549557843</v>
       </c>
       <c r="J32" t="n">
-        <v>377.7275109623929</v>
+        <v>377.7275109623932</v>
       </c>
       <c r="K32" t="n">
-        <v>851.9898429966354</v>
+        <v>851.9898429966358</v>
       </c>
       <c r="L32" t="n">
         <v>1477.25596488715</v>
       </c>
       <c r="M32" t="n">
-        <v>2204.654438818161</v>
+        <v>2204.65443881816</v>
       </c>
       <c r="N32" t="n">
         <v>2948.436788907899</v>
       </c>
       <c r="O32" t="n">
-        <v>3637.43410966587</v>
+        <v>3637.434109665872</v>
       </c>
       <c r="P32" t="n">
-        <v>4190.976381557454</v>
+        <v>4190.976381557455</v>
       </c>
       <c r="Q32" t="n">
-        <v>4558.490828317812</v>
+        <v>4558.490828317813</v>
       </c>
       <c r="R32" t="n">
-        <v>4686.861982172364</v>
+        <v>4686.861982172365</v>
       </c>
       <c r="S32" t="n">
-        <v>4602.241341965513</v>
+        <v>4602.241341965514</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717685</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.75447367386</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330289</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060175</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.471611676062</v>
+        <v>3090.457172799095</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.317840823283</v>
       </c>
     </row>
     <row r="33">
@@ -6773,22 +6773,22 @@
         <v>178.418045479447</v>
       </c>
       <c r="H33" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I33" t="n">
-        <v>95.44706852746411</v>
+        <v>95.44706852746414</v>
       </c>
       <c r="J33" t="n">
         <v>244.9357666236178</v>
       </c>
       <c r="K33" t="n">
-        <v>578.5905866043842</v>
+        <v>578.5905866043843</v>
       </c>
       <c r="L33" t="n">
         <v>1073.553208785908</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.508111165358</v>
+        <v>1670.508111165359</v>
       </c>
       <c r="N33" t="n">
         <v>2297.67127843179</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>923.1586353024646</v>
+        <v>512.2893290164855</v>
       </c>
       <c r="C34" t="n">
-        <v>754.2224523745577</v>
+        <v>343.3531460885786</v>
       </c>
       <c r="D34" t="n">
-        <v>697.4623551910016</v>
+        <v>260.9347689310271</v>
       </c>
       <c r="E34" t="n">
-        <v>549.5492616086085</v>
+        <v>260.9347689310271</v>
       </c>
       <c r="F34" t="n">
-        <v>402.6593141106981</v>
+        <v>260.9347689310271</v>
       </c>
       <c r="G34" t="n">
-        <v>235.4617848231184</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="H34" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I34" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="J34" t="n">
         <v>173.8741688132295</v>
       </c>
       <c r="K34" t="n">
-        <v>435.4005972446799</v>
+        <v>435.4005972446801</v>
       </c>
       <c r="L34" t="n">
         <v>825.5908198420038</v>
@@ -6885,25 +6885,25 @@
         <v>2378.384217162587</v>
       </c>
       <c r="S34" t="n">
-        <v>2378.384217162587</v>
+        <v>2195.504461774625</v>
       </c>
       <c r="T34" t="n">
-        <v>2158.776642175018</v>
+        <v>1975.896886787057</v>
       </c>
       <c r="U34" t="n">
-        <v>1869.701337519082</v>
+        <v>1686.82158213112</v>
       </c>
       <c r="V34" t="n">
-        <v>1615.016849313195</v>
+        <v>1432.137093925233</v>
       </c>
       <c r="W34" t="n">
-        <v>1325.599679276234</v>
+        <v>1142.719923888273</v>
       </c>
       <c r="X34" t="n">
-        <v>1325.599679276234</v>
+        <v>914.7303729902553</v>
       </c>
       <c r="Y34" t="n">
-        <v>1104.807100132704</v>
+        <v>693.9377938467252</v>
       </c>
     </row>
     <row r="35">
@@ -6913,73 +6913,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2313.718000759161</v>
+        <v>2317.732439636128</v>
       </c>
       <c r="C35" t="n">
-        <v>1944.755483818749</v>
+        <v>1948.769922695716</v>
       </c>
       <c r="D35" t="n">
-        <v>1586.489785211998</v>
+        <v>1590.504224088966</v>
       </c>
       <c r="E35" t="n">
-        <v>1200.701532613754</v>
+        <v>1204.715971490722</v>
       </c>
       <c r="F35" t="n">
-        <v>789.7156278241466</v>
+        <v>793.730066701114</v>
       </c>
       <c r="G35" t="n">
-        <v>375.769673698372</v>
+        <v>379.7841125753393</v>
       </c>
       <c r="H35" t="n">
-        <v>93.73723964344728</v>
+        <v>93.73723964344727</v>
       </c>
       <c r="I35" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557775</v>
       </c>
       <c r="J35" t="n">
-        <v>377.7275109623934</v>
+        <v>377.7275109623926</v>
       </c>
       <c r="K35" t="n">
-        <v>851.9898429966358</v>
+        <v>851.9898429966352</v>
       </c>
       <c r="L35" t="n">
         <v>1477.25596488715</v>
       </c>
       <c r="M35" t="n">
-        <v>2204.654438818162</v>
+        <v>2204.65443881816</v>
       </c>
       <c r="N35" t="n">
-        <v>2948.4367889079</v>
+        <v>2948.436788907899</v>
       </c>
       <c r="O35" t="n">
-        <v>3637.434109665872</v>
+        <v>3637.43410966587</v>
       </c>
       <c r="P35" t="n">
-        <v>4190.976381557455</v>
+        <v>4190.976381557453</v>
       </c>
       <c r="Q35" t="n">
-        <v>4558.490828317812</v>
+        <v>4558.490828317811</v>
       </c>
       <c r="R35" t="n">
-        <v>4686.861982172364</v>
+        <v>4686.861982172363</v>
       </c>
       <c r="S35" t="n">
-        <v>4602.241341965513</v>
+        <v>4602.241341965512</v>
       </c>
       <c r="T35" t="n">
         <v>4401.194830717684</v>
       </c>
       <c r="U35" t="n">
-        <v>4147.754473673859</v>
+        <v>4147.754473673858</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.691586330288</v>
+        <v>3816.691586330287</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.922931060174</v>
+        <v>3463.922931060173</v>
       </c>
       <c r="X35" t="n">
-        <v>3090.457172799094</v>
+        <v>3090.457172799093</v>
       </c>
       <c r="Y35" t="n">
         <v>2700.317840823282</v>
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3378690555352</v>
+        <v>943.337869055535</v>
       </c>
       <c r="C36" t="n">
-        <v>768.8848397744082</v>
+        <v>768.884839774408</v>
       </c>
       <c r="D36" t="n">
-        <v>619.9504301131569</v>
+        <v>619.9504301131567</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7129751077014</v>
+        <v>460.7129751077013</v>
       </c>
       <c r="F36" t="n">
         <v>314.1784171345863</v>
@@ -7010,7 +7010,7 @@
         <v>178.418045479447</v>
       </c>
       <c r="H36" t="n">
-        <v>93.73723964344728</v>
+        <v>93.73723964344727</v>
       </c>
       <c r="I36" t="n">
         <v>95.44706852746411</v>
@@ -7019,13 +7019,13 @@
         <v>244.9357666236178</v>
       </c>
       <c r="K36" t="n">
-        <v>578.5905866043842</v>
+        <v>578.5905866043843</v>
       </c>
       <c r="L36" t="n">
         <v>1073.553208785908</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.508111165358</v>
+        <v>1670.508111165359</v>
       </c>
       <c r="N36" t="n">
         <v>2297.67127843179</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>512.2893290164855</v>
+        <v>951.7549374593908</v>
       </c>
       <c r="C37" t="n">
-        <v>343.3531460885786</v>
+        <v>782.8187545314839</v>
       </c>
       <c r="D37" t="n">
-        <v>343.3531460885786</v>
+        <v>632.7021151191482</v>
       </c>
       <c r="E37" t="n">
-        <v>343.3531460885786</v>
+        <v>484.7890215367551</v>
       </c>
       <c r="F37" t="n">
-        <v>343.3531460885786</v>
+        <v>484.7890215367551</v>
       </c>
       <c r="G37" t="n">
-        <v>176.1556168009988</v>
+        <v>317.5914922491753</v>
       </c>
       <c r="H37" t="n">
-        <v>93.73723964344728</v>
+        <v>175.8669470695042</v>
       </c>
       <c r="I37" t="n">
-        <v>93.73723964344728</v>
+        <v>93.73723964344727</v>
       </c>
       <c r="J37" t="n">
         <v>173.8741688132295</v>
       </c>
       <c r="K37" t="n">
-        <v>435.4005972446799</v>
+        <v>435.4005972446801</v>
       </c>
       <c r="L37" t="n">
         <v>825.5908198420038</v>
@@ -7122,25 +7122,25 @@
         <v>2378.384217162587</v>
       </c>
       <c r="S37" t="n">
-        <v>2195.504461774625</v>
+        <v>2378.384217162587</v>
       </c>
       <c r="T37" t="n">
-        <v>1975.896886787057</v>
+        <v>2158.776642175018</v>
       </c>
       <c r="U37" t="n">
-        <v>1686.82158213112</v>
+        <v>1869.701337519082</v>
       </c>
       <c r="V37" t="n">
-        <v>1432.137093925233</v>
+        <v>1615.016849313195</v>
       </c>
       <c r="W37" t="n">
-        <v>1142.719923888273</v>
+        <v>1582.185532331178</v>
       </c>
       <c r="X37" t="n">
-        <v>914.7303729902553</v>
+        <v>1354.195981433161</v>
       </c>
       <c r="Y37" t="n">
-        <v>693.9377938467252</v>
+        <v>1133.403402289631</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2313.718000759161</v>
+        <v>2317.732439636128</v>
       </c>
       <c r="C38" t="n">
-        <v>1944.755483818749</v>
+        <v>1948.769922695716</v>
       </c>
       <c r="D38" t="n">
-        <v>1586.489785211998</v>
+        <v>1590.504224088966</v>
       </c>
       <c r="E38" t="n">
         <v>1204.715971490722</v>
       </c>
       <c r="F38" t="n">
-        <v>793.730066701114</v>
+        <v>793.7300667011141</v>
       </c>
       <c r="G38" t="n">
-        <v>379.7841125753393</v>
+        <v>379.7841125753394</v>
       </c>
       <c r="H38" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I38" t="n">
         <v>95.14107549557866</v>
       </c>
       <c r="J38" t="n">
-        <v>377.7275109623943</v>
+        <v>377.7275109623938</v>
       </c>
       <c r="K38" t="n">
-        <v>851.989842996637</v>
+        <v>851.9898429966374</v>
       </c>
       <c r="L38" t="n">
         <v>1477.255964887152</v>
@@ -7186,7 +7186,7 @@
         <v>2204.654438818162</v>
       </c>
       <c r="N38" t="n">
-        <v>2948.4367889079</v>
+        <v>2948.436788907901</v>
       </c>
       <c r="O38" t="n">
         <v>3637.434109665872</v>
@@ -7195,31 +7195,31 @@
         <v>4190.976381557455</v>
       </c>
       <c r="Q38" t="n">
-        <v>4558.490828317812</v>
+        <v>4558.490828317813</v>
       </c>
       <c r="R38" t="n">
-        <v>4686.861982172364</v>
+        <v>4686.861982172365</v>
       </c>
       <c r="S38" t="n">
-        <v>4602.241341965513</v>
+        <v>4606.255780842481</v>
       </c>
       <c r="T38" t="n">
-        <v>4401.194830717684</v>
+        <v>4405.209269594652</v>
       </c>
       <c r="U38" t="n">
-        <v>4147.754473673859</v>
+        <v>4151.768912550827</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.691586330288</v>
+        <v>3820.706025207256</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.922931060174</v>
+        <v>3467.937369937142</v>
       </c>
       <c r="X38" t="n">
-        <v>3090.457172799094</v>
+        <v>3094.471611676062</v>
       </c>
       <c r="Y38" t="n">
-        <v>2700.317840823282</v>
+        <v>2704.33227970025</v>
       </c>
     </row>
     <row r="39">
@@ -7247,22 +7247,22 @@
         <v>178.418045479447</v>
       </c>
       <c r="H39" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I39" t="n">
-        <v>95.44706852746411</v>
+        <v>95.44706852746414</v>
       </c>
       <c r="J39" t="n">
         <v>244.9357666236178</v>
       </c>
       <c r="K39" t="n">
-        <v>578.5905866043842</v>
+        <v>578.5905866043843</v>
       </c>
       <c r="L39" t="n">
         <v>1073.553208785908</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.508111165358</v>
+        <v>1670.508111165359</v>
       </c>
       <c r="N39" t="n">
         <v>2297.67127843179</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.7906323515732</v>
+        <v>707.5931030639933</v>
       </c>
       <c r="C40" t="n">
-        <v>705.8544494236663</v>
+        <v>538.6569201360865</v>
       </c>
       <c r="D40" t="n">
-        <v>555.7378100113306</v>
+        <v>388.5402807237508</v>
       </c>
       <c r="E40" t="n">
-        <v>407.8247164289374</v>
+        <v>240.6271871413576</v>
       </c>
       <c r="F40" t="n">
-        <v>260.9347689310271</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="G40" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="H40" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I40" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="J40" t="n">
         <v>173.8741688132295</v>
       </c>
       <c r="K40" t="n">
-        <v>435.4005972446799</v>
+        <v>435.4005972446801</v>
       </c>
       <c r="L40" t="n">
         <v>825.5908198420038</v>
@@ -7359,25 +7359,25 @@
         <v>2445.494219020783</v>
       </c>
       <c r="S40" t="n">
-        <v>2445.494219020783</v>
+        <v>2262.614463632821</v>
       </c>
       <c r="T40" t="n">
-        <v>2225.886644033214</v>
+        <v>2043.006888645252</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.322885466208</v>
+        <v>1753.931583989316</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.638397260321</v>
+        <v>1499.247095783429</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.22122722336</v>
+        <v>1209.829925746468</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.231676325343</v>
+        <v>981.8403748484509</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.439097181813</v>
+        <v>761.0477957049208</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759161</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.769922695716</v>
+        <v>1944.75548381875</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.504224088966</v>
+        <v>1586.489785211999</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.715971490722</v>
+        <v>1200.701532613755</v>
       </c>
       <c r="F41" t="n">
-        <v>793.730066701114</v>
+        <v>789.7156278241475</v>
       </c>
       <c r="G41" t="n">
-        <v>379.7841125753393</v>
+        <v>375.7696736983729</v>
       </c>
       <c r="H41" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I41" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557821</v>
       </c>
       <c r="J41" t="n">
-        <v>377.7275109623943</v>
+        <v>377.7275109623924</v>
       </c>
       <c r="K41" t="n">
-        <v>851.989842996637</v>
+        <v>851.9898429966352</v>
       </c>
       <c r="L41" t="n">
-        <v>1477.255964887152</v>
+        <v>1477.25596488715</v>
       </c>
       <c r="M41" t="n">
-        <v>2204.654438818162</v>
+        <v>2204.654438818161</v>
       </c>
       <c r="N41" t="n">
-        <v>2948.4367889079</v>
+        <v>2948.436788907899</v>
       </c>
       <c r="O41" t="n">
-        <v>3637.434109665872</v>
+        <v>3637.434109665871</v>
       </c>
       <c r="P41" t="n">
         <v>4190.976381557455</v>
       </c>
       <c r="Q41" t="n">
-        <v>4558.490828317812</v>
+        <v>4558.490828317813</v>
       </c>
       <c r="R41" t="n">
-        <v>4686.861982172364</v>
+        <v>4686.861982172365</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.255780842481</v>
+        <v>4602.241341965514</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717685</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.75447367386</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330289</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060175</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.471611676062</v>
+        <v>3090.457172799095</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.317840823283</v>
       </c>
     </row>
     <row r="42">
@@ -7484,22 +7484,22 @@
         <v>178.418045479447</v>
       </c>
       <c r="H42" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I42" t="n">
-        <v>95.44706852746411</v>
+        <v>95.44706852746414</v>
       </c>
       <c r="J42" t="n">
         <v>244.9357666236178</v>
       </c>
       <c r="K42" t="n">
-        <v>578.5905866043842</v>
+        <v>578.5905866043843</v>
       </c>
       <c r="L42" t="n">
         <v>1073.553208785908</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.508111165358</v>
+        <v>1670.508111165359</v>
       </c>
       <c r="N42" t="n">
         <v>2297.67127843179</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.5931030639933</v>
+        <v>801.7064990534461</v>
       </c>
       <c r="C43" t="n">
-        <v>538.6569201360865</v>
+        <v>632.7703161255392</v>
       </c>
       <c r="D43" t="n">
-        <v>388.5402807237508</v>
+        <v>482.6536767132035</v>
       </c>
       <c r="E43" t="n">
-        <v>240.6271871413576</v>
+        <v>334.7405831308104</v>
       </c>
       <c r="F43" t="n">
-        <v>93.73723964344728</v>
+        <v>334.7405831308104</v>
       </c>
       <c r="G43" t="n">
-        <v>93.73723964344728</v>
+        <v>167.5430538432306</v>
       </c>
       <c r="H43" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I43" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="J43" t="n">
         <v>173.8741688132295</v>
       </c>
       <c r="K43" t="n">
-        <v>435.4005972446799</v>
+        <v>435.4005972446801</v>
       </c>
       <c r="L43" t="n">
         <v>825.5908198420038</v>
@@ -7593,28 +7593,28 @@
         <v>2445.494219020783</v>
       </c>
       <c r="R43" t="n">
-        <v>2445.494219020783</v>
+        <v>2378.384217162587</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.808235822133</v>
+        <v>2195.504461774625</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.200660834565</v>
+        <v>1975.896886787057</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.125356178628</v>
+        <v>1686.82158213112</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.440867972741</v>
+        <v>1432.137093925233</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.023697935781</v>
+        <v>1432.137093925233</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.034147037763</v>
+        <v>1204.147543027216</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.2415678942331</v>
+        <v>983.3549638836859</v>
       </c>
     </row>
     <row r="44">
@@ -7636,55 +7636,55 @@
         <v>1204.715971490722</v>
       </c>
       <c r="F44" t="n">
-        <v>793.730066701114</v>
+        <v>793.7300667011141</v>
       </c>
       <c r="G44" t="n">
-        <v>379.7841125753393</v>
+        <v>379.7841125753394</v>
       </c>
       <c r="H44" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I44" t="n">
-        <v>95.14107549557843</v>
+        <v>95.14107549557821</v>
       </c>
       <c r="J44" t="n">
-        <v>377.727510962393</v>
+        <v>377.7275109623924</v>
       </c>
       <c r="K44" t="n">
-        <v>851.9898429966365</v>
+        <v>851.9898429966352</v>
       </c>
       <c r="L44" t="n">
-        <v>1477.255964887152</v>
+        <v>1477.25596488715</v>
       </c>
       <c r="M44" t="n">
-        <v>2204.654438818162</v>
+        <v>2204.654438818161</v>
       </c>
       <c r="N44" t="n">
-        <v>2948.4367889079</v>
+        <v>2948.436788907899</v>
       </c>
       <c r="O44" t="n">
         <v>3637.434109665871</v>
       </c>
       <c r="P44" t="n">
-        <v>4190.976381557454</v>
+        <v>4190.976381557455</v>
       </c>
       <c r="Q44" t="n">
-        <v>4558.490828317812</v>
+        <v>4558.490828317813</v>
       </c>
       <c r="R44" t="n">
-        <v>4686.861982172364</v>
+        <v>4686.861982172365</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.255780842481</v>
+        <v>4602.241341965514</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717685</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.75447367386</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330289</v>
       </c>
       <c r="W44" t="n">
         <v>3467.937369937142</v>
@@ -7721,22 +7721,22 @@
         <v>178.418045479447</v>
       </c>
       <c r="H45" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I45" t="n">
-        <v>95.44706852746411</v>
+        <v>95.44706852746414</v>
       </c>
       <c r="J45" t="n">
         <v>244.9357666236178</v>
       </c>
       <c r="K45" t="n">
-        <v>578.5905866043842</v>
+        <v>578.5905866043843</v>
       </c>
       <c r="L45" t="n">
         <v>1073.553208785908</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.508111165358</v>
+        <v>1670.508111165359</v>
       </c>
       <c r="N45" t="n">
         <v>2297.67127843179</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7252044646619</v>
+        <v>762.2790862626427</v>
       </c>
       <c r="C46" t="n">
-        <v>484.7890215367551</v>
+        <v>593.3429033347359</v>
       </c>
       <c r="D46" t="n">
-        <v>484.7890215367551</v>
+        <v>443.2262639224001</v>
       </c>
       <c r="E46" t="n">
-        <v>484.7890215367551</v>
+        <v>443.2262639224001</v>
       </c>
       <c r="F46" t="n">
-        <v>484.7890215367551</v>
+        <v>443.2262639224001</v>
       </c>
       <c r="G46" t="n">
         <v>317.5914922491753</v>
@@ -7803,13 +7803,13 @@
         <v>175.8669470695042</v>
       </c>
       <c r="I46" t="n">
-        <v>93.73723964344728</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="J46" t="n">
         <v>173.8741688132295</v>
       </c>
       <c r="K46" t="n">
-        <v>435.4005972446799</v>
+        <v>435.4005972446801</v>
       </c>
       <c r="L46" t="n">
         <v>825.5908198420038</v>
@@ -7833,25 +7833,25 @@
         <v>2445.494219020783</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.940337222802</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.332762235233</v>
+        <v>2225.886644033214</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.257457579297</v>
+        <v>1936.811339377278</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.57296937341</v>
+        <v>1682.126851171391</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.155799336449</v>
+        <v>1392.70968113443</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.166248438432</v>
+        <v>1164.720130236413</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3736692949017</v>
+        <v>943.9275510928825</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111075</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241565</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>84.94186588374652</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>92.86573124206927</v>
       </c>
       <c r="C11" t="n">
-        <v>203.2512123885489</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>75.60632145146214</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>152.1724499918693</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>94.87516969978242</v>
+        <v>294.3692147095456</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>88.6653045902853</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>26.71535412007853</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>111.9976883783737</v>
       </c>
       <c r="G17" t="n">
-        <v>14.6787634927976</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>91.26811680410472</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>121.0000816598861</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>235.6797139073998</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,16 +24025,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3.974294488196904</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>3.974294488199462</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>3.974294488197671</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.974294488196961</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>105.2597677093463</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.30841035179638</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.43890183961375</v>
+        <v>66.43890183961373</v>
       </c>
       <c r="S28" t="n">
         <v>181.0509578340822</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>114.4174873556165</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.974294488197756</v>
+        <v>3.974294488198552</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>140.0215166936948</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.30841035179638</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.3006520135917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>3.974294488196847</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>3.974294488197671</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>92.42297680649179</v>
+        <v>67.02127963223637</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I34" t="n">
-        <v>81.30841035179638</v>
+        <v>81.30841035179637</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>3.97429448819878</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>3.974294488197756</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>58.71310634189837</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.30841035179638</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>254.019994524394</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.974294488197756</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.974294488196819</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>126.9118344674192</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H40" t="n">
         <v>140.3072997278744</v>
       </c>
       <c r="I40" t="n">
-        <v>81.30841035179638</v>
+        <v>81.30841035179637</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.43890183961375</v>
+        <v>66.43890183961373</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>111.386430628041</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>3.974294488196847</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.974294488197756</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.3072997278744</v>
+        <v>67.23954367008891</v>
       </c>
       <c r="I43" t="n">
-        <v>81.30841035179638</v>
+        <v>81.30841035179637</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.43890183961375</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>126.9118344674193</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.974294488197756</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>3.974294488196961</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>41.14713003821143</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.43890183961375</v>
+        <v>66.43890183961373</v>
       </c>
       <c r="S46" t="n">
-        <v>73.58261485408106</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>794662.3750383273</v>
+        <v>794662.3750383272</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>794662.3750383273</v>
+        <v>794662.3750383272</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>794662.3750383271</v>
+        <v>794662.3750383272</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>938181.696621159</v>
+        <v>938181.6966211592</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>938181.6966211593</v>
+        <v>938181.696621159</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>938181.6966211592</v>
+        <v>938181.6966211593</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>938181.6966211591</v>
+        <v>938181.6966211592</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185702</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185699</v>
-      </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="E2" t="n">
+        <v>409196.5187651049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>409196.5187651049</v>
+      </c>
+      <c r="G2" t="n">
+        <v>409196.5187651049</v>
+      </c>
+      <c r="H2" t="n">
         <v>409196.5187651048</v>
-      </c>
-      <c r="F2" t="n">
-        <v>409196.5187651048</v>
-      </c>
-      <c r="G2" t="n">
-        <v>409196.5187651048</v>
-      </c>
-      <c r="H2" t="n">
-        <v>409196.5187651047</v>
       </c>
       <c r="I2" t="n">
         <v>484076.1648083209</v>
       </c>
       <c r="J2" t="n">
-        <v>484076.164808321</v>
+        <v>484076.1648083209</v>
       </c>
       <c r="K2" t="n">
         <v>484076.164808321</v>
@@ -26346,16 +26346,16 @@
         <v>484076.164808321</v>
       </c>
       <c r="M2" t="n">
-        <v>484076.164808321</v>
+        <v>484076.1648083209</v>
       </c>
       <c r="N2" t="n">
         <v>484076.1648083211</v>
       </c>
       <c r="O2" t="n">
-        <v>484076.1648083209</v>
+        <v>484076.164808321</v>
       </c>
       <c r="P2" t="n">
-        <v>484076.1648083209</v>
+        <v>484076.164808321</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171907</v>
+        <v>182072.9798171905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,25 +26383,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>299319.5565061382</v>
+        <v>299319.5565061386</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.177809983</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.265793415</v>
+        <v>47552.2657934148</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140338.6838374606</v>
+        <v>140338.6838374607</v>
       </c>
       <c r="C4" t="n">
         <v>140338.6838374606</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984473</v>
@@ -26478,7 +26478,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-855403.1779346556</v>
+        <v>-855403.1779346549</v>
       </c>
       <c r="C6" t="n">
         <v>259348.6056412646</v>
       </c>
       <c r="D6" t="n">
-        <v>259348.6056412646</v>
+        <v>259348.605641265</v>
       </c>
       <c r="E6" t="n">
-        <v>138350.7180563436</v>
+        <v>141479.2884245989</v>
       </c>
       <c r="F6" t="n">
-        <v>320423.6978735343</v>
+        <v>323552.2682417894</v>
       </c>
       <c r="G6" t="n">
-        <v>320423.6978735343</v>
+        <v>323552.2682417894</v>
       </c>
       <c r="H6" t="n">
-        <v>320423.6978735342</v>
+        <v>323552.2682417891</v>
       </c>
       <c r="I6" t="n">
-        <v>72188.834764353</v>
+        <v>72509.418405987</v>
       </c>
       <c r="J6" t="n">
-        <v>203903.2134605084</v>
+        <v>204223.797102143</v>
       </c>
       <c r="K6" t="n">
-        <v>371508.3912704919</v>
+        <v>371828.9749121257</v>
       </c>
       <c r="L6" t="n">
-        <v>371508.3912704914</v>
+        <v>371828.9749121256</v>
       </c>
       <c r="M6" t="n">
-        <v>323956.1254770764</v>
+        <v>324276.7091187108</v>
       </c>
       <c r="N6" t="n">
-        <v>371508.3912704915</v>
+        <v>371828.9749121257</v>
       </c>
       <c r="O6" t="n">
-        <v>371508.3912704913</v>
+        <v>371828.9749121257</v>
       </c>
       <c r="P6" t="n">
-        <v>371508.3912704913</v>
+        <v>371828.9749121257</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26758,28 +26758,28 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.190428991286</v>
+        <v>1367.190428991287</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.190428991286</v>
+        <v>1367.190428991287</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.190428991286</v>
+        <v>1367.190428991287</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.190428991286</v>
+        <v>1367.190428991287</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.190428991286</v>
+        <v>1367.190428991287</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.190428991286</v>
+        <v>1367.190428991287</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.190428991286</v>
+        <v>1367.190428991287</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.190428991286</v>
+        <v>1367.190428991287</v>
       </c>
     </row>
     <row r="4">
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>277.4137283979881</v>
+        <v>277.4137283979883</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>340.3140401407979</v>
+        <v>340.3140401407986</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000406</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.266463326870635e-12</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>283.875597404259</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>70.71440111010614</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-2.245315045001917e-12</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>51.96780555963151</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>80.10369274147288</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>147.1726776072945</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>7.715085779896242</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>36.00833474128029</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>51.96780555963127</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>104.1206332995623</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>195.2322228143422</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193758</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>55.73584717546876</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31320,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31369,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31381,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32569,10 +32569,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.496242930618233</v>
+        <v>5.496242930618234</v>
       </c>
       <c r="H23" t="n">
-        <v>56.28839791319399</v>
+        <v>56.288397913194</v>
       </c>
       <c r="I23" t="n">
         <v>211.8939055826596</v>
       </c>
       <c r="J23" t="n">
-        <v>466.4867484325596</v>
+        <v>466.4867484325597</v>
       </c>
       <c r="K23" t="n">
-        <v>699.1427116856296</v>
+        <v>699.1427116856297</v>
       </c>
       <c r="L23" t="n">
-        <v>867.3483562735374</v>
+        <v>867.3483562735375</v>
       </c>
       <c r="M23" t="n">
-        <v>965.0921664909195</v>
+        <v>965.0921664909196</v>
       </c>
       <c r="N23" t="n">
-        <v>980.7083667175385</v>
+        <v>980.7083667175388</v>
       </c>
       <c r="O23" t="n">
-        <v>926.0551010762034</v>
+        <v>926.0551010762036</v>
       </c>
       <c r="P23" t="n">
-        <v>790.3666037265657</v>
+        <v>790.3666037265658</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.5324037738001</v>
+        <v>593.5324037738002</v>
       </c>
       <c r="R23" t="n">
-        <v>345.2533699904478</v>
+        <v>345.2533699904479</v>
       </c>
       <c r="S23" t="n">
         <v>125.2456357814631</v>
@@ -32742,7 +32742,7 @@
         <v>24.05980342878133</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4396994344494585</v>
+        <v>0.4396994344494586</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32791,19 +32791,19 @@
         <v>277.8363116122765</v>
       </c>
       <c r="K24" t="n">
-        <v>474.8665096620018</v>
+        <v>474.8665096620019</v>
       </c>
       <c r="L24" t="n">
-        <v>638.5166244076759</v>
+        <v>638.516624407676</v>
       </c>
       <c r="M24" t="n">
-        <v>745.118783800251</v>
+        <v>745.1187838002511</v>
       </c>
       <c r="N24" t="n">
-        <v>764.8398608373046</v>
+        <v>465.7039607008702</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5431489342295</v>
+        <v>699.6790490706634</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.62312704507636</v>
+        <v>54.62312704507637</v>
       </c>
       <c r="T24" t="n">
         <v>11.85328305889615</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1934703437251821</v>
+        <v>0.1934703437251822</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,43 +32858,43 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.465425363754778</v>
+        <v>2.465425363754779</v>
       </c>
       <c r="H25" t="n">
         <v>21.91987277956523</v>
       </c>
       <c r="I25" t="n">
-        <v>74.1420645754619</v>
+        <v>74.14206457546192</v>
       </c>
       <c r="J25" t="n">
-        <v>174.3055732174628</v>
+        <v>174.3055732174629</v>
       </c>
       <c r="K25" t="n">
         <v>286.4376013526006</v>
       </c>
       <c r="L25" t="n">
-        <v>366.5415127167786</v>
+        <v>366.5415127167787</v>
       </c>
       <c r="M25" t="n">
-        <v>386.4666322474876</v>
+        <v>386.4666322474877</v>
       </c>
       <c r="N25" t="n">
-        <v>377.2773195280383</v>
+        <v>377.2773195280384</v>
       </c>
       <c r="O25" t="n">
-        <v>348.4766686878119</v>
+        <v>348.476668687812</v>
       </c>
       <c r="P25" t="n">
         <v>298.1819912672142</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.4457547776842</v>
+        <v>206.4457547776843</v>
       </c>
       <c r="R25" t="n">
-        <v>110.8544895375557</v>
+        <v>110.8544895375558</v>
       </c>
       <c r="S25" t="n">
-        <v>42.96564020289008</v>
+        <v>42.96564020289009</v>
       </c>
       <c r="T25" t="n">
         <v>10.5340901905886</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.496242930618233</v>
+        <v>5.496242930618234</v>
       </c>
       <c r="H26" t="n">
-        <v>56.28839791319399</v>
+        <v>56.288397913194</v>
       </c>
       <c r="I26" t="n">
         <v>211.8939055826596</v>
       </c>
       <c r="J26" t="n">
-        <v>466.4867484325596</v>
+        <v>466.4867484325597</v>
       </c>
       <c r="K26" t="n">
-        <v>699.1427116856296</v>
+        <v>699.1427116856297</v>
       </c>
       <c r="L26" t="n">
-        <v>867.3483562735374</v>
+        <v>867.3483562735375</v>
       </c>
       <c r="M26" t="n">
-        <v>965.0921664909195</v>
+        <v>965.0921664909196</v>
       </c>
       <c r="N26" t="n">
-        <v>980.7083667175385</v>
+        <v>980.7083667175388</v>
       </c>
       <c r="O26" t="n">
-        <v>926.0551010762034</v>
+        <v>926.0551010762036</v>
       </c>
       <c r="P26" t="n">
-        <v>790.3666037265657</v>
+        <v>790.3666037265658</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.5324037738001</v>
+        <v>593.5324037738002</v>
       </c>
       <c r="R26" t="n">
-        <v>345.2533699904478</v>
+        <v>345.2533699904479</v>
       </c>
       <c r="S26" t="n">
         <v>125.2456357814631</v>
@@ -32979,7 +32979,7 @@
         <v>24.05980342878133</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4396994344494585</v>
+        <v>0.4396994344494586</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33028,19 +33028,19 @@
         <v>277.8363116122765</v>
       </c>
       <c r="K27" t="n">
-        <v>474.8665096620018</v>
+        <v>474.8665096620019</v>
       </c>
       <c r="L27" t="n">
-        <v>638.5166244076759</v>
+        <v>638.516624407676</v>
       </c>
       <c r="M27" t="n">
-        <v>745.118783800251</v>
+        <v>745.1187838002511</v>
       </c>
       <c r="N27" t="n">
-        <v>764.8398608373046</v>
+        <v>465.7039607008702</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5431489342295</v>
+        <v>699.6790490706634</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.62312704507636</v>
+        <v>54.62312704507637</v>
       </c>
       <c r="T27" t="n">
         <v>11.85328305889615</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1934703437251821</v>
+        <v>0.1934703437251822</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,43 +33095,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.465425363754778</v>
+        <v>2.465425363754779</v>
       </c>
       <c r="H28" t="n">
         <v>21.91987277956523</v>
       </c>
       <c r="I28" t="n">
-        <v>74.1420645754619</v>
+        <v>74.14206457546192</v>
       </c>
       <c r="J28" t="n">
-        <v>174.3055732174628</v>
+        <v>174.3055732174629</v>
       </c>
       <c r="K28" t="n">
         <v>286.4376013526006</v>
       </c>
       <c r="L28" t="n">
-        <v>366.5415127167786</v>
+        <v>366.5415127167787</v>
       </c>
       <c r="M28" t="n">
-        <v>386.4666322474876</v>
+        <v>386.4666322474877</v>
       </c>
       <c r="N28" t="n">
-        <v>377.2773195280383</v>
+        <v>377.2773195280384</v>
       </c>
       <c r="O28" t="n">
-        <v>348.4766686878119</v>
+        <v>348.476668687812</v>
       </c>
       <c r="P28" t="n">
         <v>298.1819912672142</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.4457547776842</v>
+        <v>206.4457547776843</v>
       </c>
       <c r="R28" t="n">
-        <v>110.8544895375557</v>
+        <v>110.8544895375558</v>
       </c>
       <c r="S28" t="n">
-        <v>42.96564020289008</v>
+        <v>42.96564020289009</v>
       </c>
       <c r="T28" t="n">
         <v>10.5340901905886</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.496242930618233</v>
+        <v>5.496242930618234</v>
       </c>
       <c r="H29" t="n">
-        <v>56.28839791319399</v>
+        <v>56.288397913194</v>
       </c>
       <c r="I29" t="n">
         <v>211.8939055826596</v>
       </c>
       <c r="J29" t="n">
-        <v>466.4867484325596</v>
+        <v>466.4867484325597</v>
       </c>
       <c r="K29" t="n">
-        <v>699.1427116856296</v>
+        <v>699.1427116856297</v>
       </c>
       <c r="L29" t="n">
-        <v>867.3483562735374</v>
+        <v>867.3483562735375</v>
       </c>
       <c r="M29" t="n">
-        <v>965.0921664909195</v>
+        <v>965.0921664909196</v>
       </c>
       <c r="N29" t="n">
-        <v>980.7083667175385</v>
+        <v>980.7083667175388</v>
       </c>
       <c r="O29" t="n">
-        <v>926.0551010762034</v>
+        <v>926.0551010762036</v>
       </c>
       <c r="P29" t="n">
-        <v>790.3666037265657</v>
+        <v>790.3666037265658</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.5324037738001</v>
+        <v>593.5324037738002</v>
       </c>
       <c r="R29" t="n">
-        <v>345.2533699904478</v>
+        <v>345.2533699904479</v>
       </c>
       <c r="S29" t="n">
         <v>125.2456357814631</v>
@@ -33216,7 +33216,7 @@
         <v>24.05980342878133</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4396994344494585</v>
+        <v>0.4396994344494586</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33265,19 +33265,19 @@
         <v>277.8363116122765</v>
       </c>
       <c r="K30" t="n">
-        <v>474.8665096620018</v>
+        <v>474.8665096620019</v>
       </c>
       <c r="L30" t="n">
-        <v>638.5166244076759</v>
+        <v>638.516624407676</v>
       </c>
       <c r="M30" t="n">
-        <v>745.118783800251</v>
+        <v>745.1187838002511</v>
       </c>
       <c r="N30" t="n">
-        <v>764.8398608373046</v>
+        <v>764.8398608373047</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5431489342295</v>
+        <v>400.543148934229</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.62312704507636</v>
+        <v>54.62312704507637</v>
       </c>
       <c r="T30" t="n">
         <v>11.85328305889615</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1934703437251821</v>
+        <v>0.1934703437251822</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,43 +33332,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.465425363754778</v>
+        <v>2.465425363754779</v>
       </c>
       <c r="H31" t="n">
         <v>21.91987277956523</v>
       </c>
       <c r="I31" t="n">
-        <v>74.1420645754619</v>
+        <v>74.14206457546192</v>
       </c>
       <c r="J31" t="n">
-        <v>174.3055732174628</v>
+        <v>174.3055732174629</v>
       </c>
       <c r="K31" t="n">
         <v>286.4376013526006</v>
       </c>
       <c r="L31" t="n">
-        <v>366.5415127167786</v>
+        <v>366.5415127167787</v>
       </c>
       <c r="M31" t="n">
-        <v>386.4666322474876</v>
+        <v>386.4666322474877</v>
       </c>
       <c r="N31" t="n">
-        <v>377.2773195280383</v>
+        <v>377.2773195280384</v>
       </c>
       <c r="O31" t="n">
-        <v>348.4766686878119</v>
+        <v>348.476668687812</v>
       </c>
       <c r="P31" t="n">
         <v>298.1819912672142</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.4457547776842</v>
+        <v>206.4457547776843</v>
       </c>
       <c r="R31" t="n">
-        <v>110.8544895375557</v>
+        <v>110.8544895375558</v>
       </c>
       <c r="S31" t="n">
-        <v>42.96564020289008</v>
+        <v>42.96564020289009</v>
       </c>
       <c r="T31" t="n">
         <v>10.5340901905886</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.496242930618233</v>
+        <v>5.496242930618234</v>
       </c>
       <c r="H32" t="n">
-        <v>56.28839791319399</v>
+        <v>56.288397913194</v>
       </c>
       <c r="I32" t="n">
         <v>211.8939055826596</v>
       </c>
       <c r="J32" t="n">
-        <v>466.4867484325596</v>
+        <v>466.4867484325597</v>
       </c>
       <c r="K32" t="n">
-        <v>699.1427116856296</v>
+        <v>699.1427116856297</v>
       </c>
       <c r="L32" t="n">
-        <v>867.3483562735374</v>
+        <v>867.3483562735375</v>
       </c>
       <c r="M32" t="n">
-        <v>965.0921664909195</v>
+        <v>965.0921664909196</v>
       </c>
       <c r="N32" t="n">
-        <v>980.7083667175385</v>
+        <v>980.7083667175388</v>
       </c>
       <c r="O32" t="n">
-        <v>926.0551010762034</v>
+        <v>926.0551010762036</v>
       </c>
       <c r="P32" t="n">
-        <v>790.3666037265657</v>
+        <v>790.3666037265658</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.5324037738001</v>
+        <v>593.5324037738002</v>
       </c>
       <c r="R32" t="n">
-        <v>345.2533699904478</v>
+        <v>345.2533699904479</v>
       </c>
       <c r="S32" t="n">
         <v>125.2456357814631</v>
@@ -33453,7 +33453,7 @@
         <v>24.05980342878133</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4396994344494585</v>
+        <v>0.4396994344494586</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33502,19 +33502,19 @@
         <v>277.8363116122765</v>
       </c>
       <c r="K33" t="n">
-        <v>474.8665096620018</v>
+        <v>474.8665096620019</v>
       </c>
       <c r="L33" t="n">
-        <v>638.5166244076759</v>
+        <v>638.516624407676</v>
       </c>
       <c r="M33" t="n">
-        <v>745.118783800251</v>
+        <v>745.1187838002511</v>
       </c>
       <c r="N33" t="n">
-        <v>764.8398608373046</v>
+        <v>764.8398608373047</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5431489342295</v>
+        <v>400.543148934229</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.62312704507636</v>
+        <v>54.62312704507637</v>
       </c>
       <c r="T33" t="n">
         <v>11.85328305889615</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1934703437251821</v>
+        <v>0.1934703437251822</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,43 +33569,43 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.465425363754778</v>
+        <v>2.465425363754779</v>
       </c>
       <c r="H34" t="n">
         <v>21.91987277956523</v>
       </c>
       <c r="I34" t="n">
-        <v>74.1420645754619</v>
+        <v>74.14206457546192</v>
       </c>
       <c r="J34" t="n">
-        <v>174.3055732174628</v>
+        <v>174.3055732174629</v>
       </c>
       <c r="K34" t="n">
         <v>286.4376013526006</v>
       </c>
       <c r="L34" t="n">
-        <v>366.5415127167786</v>
+        <v>366.5415127167787</v>
       </c>
       <c r="M34" t="n">
-        <v>386.4666322474876</v>
+        <v>386.4666322474877</v>
       </c>
       <c r="N34" t="n">
-        <v>377.2773195280383</v>
+        <v>377.2773195280384</v>
       </c>
       <c r="O34" t="n">
-        <v>348.4766686878119</v>
+        <v>348.476668687812</v>
       </c>
       <c r="P34" t="n">
         <v>298.1819912672142</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.4457547776842</v>
+        <v>206.4457547776843</v>
       </c>
       <c r="R34" t="n">
-        <v>110.8544895375557</v>
+        <v>110.8544895375558</v>
       </c>
       <c r="S34" t="n">
-        <v>42.96564020289008</v>
+        <v>42.96564020289009</v>
       </c>
       <c r="T34" t="n">
         <v>10.5340901905886</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.496242930618233</v>
+        <v>5.496242930618234</v>
       </c>
       <c r="H35" t="n">
-        <v>56.28839791319399</v>
+        <v>56.288397913194</v>
       </c>
       <c r="I35" t="n">
         <v>211.8939055826596</v>
       </c>
       <c r="J35" t="n">
-        <v>466.4867484325596</v>
+        <v>466.4867484325597</v>
       </c>
       <c r="K35" t="n">
-        <v>699.1427116856296</v>
+        <v>699.1427116856297</v>
       </c>
       <c r="L35" t="n">
-        <v>867.3483562735374</v>
+        <v>867.3483562735375</v>
       </c>
       <c r="M35" t="n">
-        <v>965.0921664909195</v>
+        <v>965.0921664909196</v>
       </c>
       <c r="N35" t="n">
-        <v>980.7083667175385</v>
+        <v>980.7083667175388</v>
       </c>
       <c r="O35" t="n">
-        <v>926.0551010762034</v>
+        <v>926.0551010762036</v>
       </c>
       <c r="P35" t="n">
-        <v>790.3666037265657</v>
+        <v>790.3666037265658</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.5324037738001</v>
+        <v>593.5324037738002</v>
       </c>
       <c r="R35" t="n">
-        <v>345.2533699904478</v>
+        <v>345.2533699904479</v>
       </c>
       <c r="S35" t="n">
         <v>125.2456357814631</v>
@@ -33690,7 +33690,7 @@
         <v>24.05980342878133</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4396994344494585</v>
+        <v>0.4396994344494586</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33739,19 +33739,19 @@
         <v>277.8363116122765</v>
       </c>
       <c r="K36" t="n">
-        <v>474.8665096620018</v>
+        <v>474.8665096620019</v>
       </c>
       <c r="L36" t="n">
-        <v>638.5166244076759</v>
+        <v>638.516624407676</v>
       </c>
       <c r="M36" t="n">
-        <v>745.118783800251</v>
+        <v>745.1187838002511</v>
       </c>
       <c r="N36" t="n">
-        <v>764.8398608373046</v>
+        <v>764.8398608373047</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5431489342295</v>
+        <v>400.543148934229</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.62312704507636</v>
+        <v>54.62312704507637</v>
       </c>
       <c r="T36" t="n">
         <v>11.85328305889615</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1934703437251821</v>
+        <v>0.1934703437251822</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,43 +33806,43 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.465425363754778</v>
+        <v>2.465425363754779</v>
       </c>
       <c r="H37" t="n">
         <v>21.91987277956523</v>
       </c>
       <c r="I37" t="n">
-        <v>74.1420645754619</v>
+        <v>74.14206457546192</v>
       </c>
       <c r="J37" t="n">
-        <v>174.3055732174628</v>
+        <v>174.3055732174629</v>
       </c>
       <c r="K37" t="n">
         <v>286.4376013526006</v>
       </c>
       <c r="L37" t="n">
-        <v>366.5415127167786</v>
+        <v>366.5415127167787</v>
       </c>
       <c r="M37" t="n">
-        <v>386.4666322474876</v>
+        <v>386.4666322474877</v>
       </c>
       <c r="N37" t="n">
-        <v>377.2773195280383</v>
+        <v>377.2773195280384</v>
       </c>
       <c r="O37" t="n">
-        <v>348.4766686878119</v>
+        <v>348.476668687812</v>
       </c>
       <c r="P37" t="n">
         <v>298.1819912672142</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.4457547776842</v>
+        <v>206.4457547776843</v>
       </c>
       <c r="R37" t="n">
-        <v>110.8544895375557</v>
+        <v>110.8544895375558</v>
       </c>
       <c r="S37" t="n">
-        <v>42.96564020289008</v>
+        <v>42.96564020289009</v>
       </c>
       <c r="T37" t="n">
         <v>10.5340901905886</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.496242930618233</v>
+        <v>5.496242930618234</v>
       </c>
       <c r="H38" t="n">
-        <v>56.28839791319399</v>
+        <v>56.288397913194</v>
       </c>
       <c r="I38" t="n">
         <v>211.8939055826596</v>
       </c>
       <c r="J38" t="n">
-        <v>466.4867484325596</v>
+        <v>466.4867484325597</v>
       </c>
       <c r="K38" t="n">
-        <v>699.1427116856296</v>
+        <v>699.1427116856297</v>
       </c>
       <c r="L38" t="n">
-        <v>867.3483562735374</v>
+        <v>867.3483562735375</v>
       </c>
       <c r="M38" t="n">
-        <v>965.0921664909195</v>
+        <v>965.0921664909196</v>
       </c>
       <c r="N38" t="n">
-        <v>980.7083667175385</v>
+        <v>980.7083667175388</v>
       </c>
       <c r="O38" t="n">
-        <v>926.0551010762034</v>
+        <v>926.0551010762036</v>
       </c>
       <c r="P38" t="n">
-        <v>790.3666037265657</v>
+        <v>790.3666037265658</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.5324037738001</v>
+        <v>593.5324037738002</v>
       </c>
       <c r="R38" t="n">
-        <v>345.2533699904478</v>
+        <v>345.2533699904479</v>
       </c>
       <c r="S38" t="n">
         <v>125.2456357814631</v>
@@ -33927,7 +33927,7 @@
         <v>24.05980342878133</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4396994344494585</v>
+        <v>0.4396994344494586</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33976,19 +33976,19 @@
         <v>277.8363116122765</v>
       </c>
       <c r="K39" t="n">
-        <v>474.8665096620018</v>
+        <v>474.8665096620019</v>
       </c>
       <c r="L39" t="n">
-        <v>638.5166244076759</v>
+        <v>638.516624407676</v>
       </c>
       <c r="M39" t="n">
-        <v>745.118783800251</v>
+        <v>745.1187838002511</v>
       </c>
       <c r="N39" t="n">
-        <v>764.8398608373046</v>
+        <v>764.8398608373047</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5431489342295</v>
+        <v>400.543148934229</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.62312704507636</v>
+        <v>54.62312704507637</v>
       </c>
       <c r="T39" t="n">
         <v>11.85328305889615</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1934703437251821</v>
+        <v>0.1934703437251822</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,43 +34043,43 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.465425363754778</v>
+        <v>2.465425363754779</v>
       </c>
       <c r="H40" t="n">
         <v>21.91987277956523</v>
       </c>
       <c r="I40" t="n">
-        <v>74.1420645754619</v>
+        <v>74.14206457546192</v>
       </c>
       <c r="J40" t="n">
-        <v>174.3055732174628</v>
+        <v>174.3055732174629</v>
       </c>
       <c r="K40" t="n">
         <v>286.4376013526006</v>
       </c>
       <c r="L40" t="n">
-        <v>366.5415127167786</v>
+        <v>366.5415127167787</v>
       </c>
       <c r="M40" t="n">
-        <v>386.4666322474876</v>
+        <v>386.4666322474877</v>
       </c>
       <c r="N40" t="n">
-        <v>377.2773195280383</v>
+        <v>377.2773195280384</v>
       </c>
       <c r="O40" t="n">
-        <v>348.4766686878119</v>
+        <v>348.476668687812</v>
       </c>
       <c r="P40" t="n">
         <v>298.1819912672142</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.4457547776842</v>
+        <v>206.4457547776843</v>
       </c>
       <c r="R40" t="n">
-        <v>110.8544895375557</v>
+        <v>110.8544895375558</v>
       </c>
       <c r="S40" t="n">
-        <v>42.96564020289008</v>
+        <v>42.96564020289009</v>
       </c>
       <c r="T40" t="n">
         <v>10.5340901905886</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.496242930618233</v>
+        <v>5.496242930618234</v>
       </c>
       <c r="H41" t="n">
-        <v>56.28839791319399</v>
+        <v>56.288397913194</v>
       </c>
       <c r="I41" t="n">
         <v>211.8939055826596</v>
       </c>
       <c r="J41" t="n">
-        <v>466.4867484325596</v>
+        <v>466.4867484325597</v>
       </c>
       <c r="K41" t="n">
-        <v>699.1427116856296</v>
+        <v>699.1427116856297</v>
       </c>
       <c r="L41" t="n">
-        <v>867.3483562735374</v>
+        <v>867.3483562735375</v>
       </c>
       <c r="M41" t="n">
-        <v>965.0921664909195</v>
+        <v>965.0921664909196</v>
       </c>
       <c r="N41" t="n">
-        <v>980.7083667175385</v>
+        <v>980.7083667175388</v>
       </c>
       <c r="O41" t="n">
-        <v>926.0551010762034</v>
+        <v>926.0551010762036</v>
       </c>
       <c r="P41" t="n">
-        <v>790.3666037265657</v>
+        <v>790.3666037265658</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.5324037738001</v>
+        <v>593.5324037738002</v>
       </c>
       <c r="R41" t="n">
-        <v>345.2533699904478</v>
+        <v>345.2533699904479</v>
       </c>
       <c r="S41" t="n">
         <v>125.2456357814631</v>
@@ -34164,7 +34164,7 @@
         <v>24.05980342878133</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4396994344494585</v>
+        <v>0.4396994344494586</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34213,19 +34213,19 @@
         <v>277.8363116122765</v>
       </c>
       <c r="K42" t="n">
-        <v>474.8665096620018</v>
+        <v>474.8665096620019</v>
       </c>
       <c r="L42" t="n">
-        <v>638.5166244076759</v>
+        <v>638.516624407676</v>
       </c>
       <c r="M42" t="n">
-        <v>745.118783800251</v>
+        <v>745.1187838002511</v>
       </c>
       <c r="N42" t="n">
-        <v>764.8398608373046</v>
+        <v>764.8398608373047</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5431489342295</v>
+        <v>400.543148934229</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.62312704507636</v>
+        <v>54.62312704507637</v>
       </c>
       <c r="T42" t="n">
         <v>11.85328305889615</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1934703437251821</v>
+        <v>0.1934703437251822</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,43 +34280,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.465425363754778</v>
+        <v>2.465425363754779</v>
       </c>
       <c r="H43" t="n">
         <v>21.91987277956523</v>
       </c>
       <c r="I43" t="n">
-        <v>74.1420645754619</v>
+        <v>74.14206457546192</v>
       </c>
       <c r="J43" t="n">
-        <v>174.3055732174628</v>
+        <v>174.3055732174629</v>
       </c>
       <c r="K43" t="n">
         <v>286.4376013526006</v>
       </c>
       <c r="L43" t="n">
-        <v>366.5415127167786</v>
+        <v>366.5415127167787</v>
       </c>
       <c r="M43" t="n">
-        <v>386.4666322474876</v>
+        <v>386.4666322474877</v>
       </c>
       <c r="N43" t="n">
-        <v>377.2773195280383</v>
+        <v>377.2773195280384</v>
       </c>
       <c r="O43" t="n">
-        <v>348.4766686878119</v>
+        <v>348.476668687812</v>
       </c>
       <c r="P43" t="n">
         <v>298.1819912672142</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.4457547776842</v>
+        <v>206.4457547776843</v>
       </c>
       <c r="R43" t="n">
-        <v>110.8544895375557</v>
+        <v>110.8544895375558</v>
       </c>
       <c r="S43" t="n">
-        <v>42.96564020289008</v>
+        <v>42.96564020289009</v>
       </c>
       <c r="T43" t="n">
         <v>10.5340901905886</v>
@@ -34359,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.496242930618233</v>
+        <v>5.496242930618234</v>
       </c>
       <c r="H44" t="n">
-        <v>56.28839791319399</v>
+        <v>56.288397913194</v>
       </c>
       <c r="I44" t="n">
         <v>211.8939055826596</v>
       </c>
       <c r="J44" t="n">
-        <v>466.4867484325596</v>
+        <v>466.4867484325597</v>
       </c>
       <c r="K44" t="n">
-        <v>699.1427116856296</v>
+        <v>699.1427116856297</v>
       </c>
       <c r="L44" t="n">
-        <v>867.3483562735374</v>
+        <v>867.3483562735375</v>
       </c>
       <c r="M44" t="n">
-        <v>965.0921664909195</v>
+        <v>965.0921664909196</v>
       </c>
       <c r="N44" t="n">
-        <v>980.7083667175385</v>
+        <v>980.7083667175388</v>
       </c>
       <c r="O44" t="n">
-        <v>926.0551010762034</v>
+        <v>926.0551010762036</v>
       </c>
       <c r="P44" t="n">
-        <v>790.3666037265657</v>
+        <v>790.3666037265658</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.5324037738001</v>
+        <v>593.5324037738002</v>
       </c>
       <c r="R44" t="n">
-        <v>345.2533699904478</v>
+        <v>345.2533699904479</v>
       </c>
       <c r="S44" t="n">
         <v>125.2456357814631</v>
@@ -34401,7 +34401,7 @@
         <v>24.05980342878133</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4396994344494585</v>
+        <v>0.4396994344494586</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34450,19 +34450,19 @@
         <v>277.8363116122765</v>
       </c>
       <c r="K45" t="n">
-        <v>474.8665096620018</v>
+        <v>474.8665096620019</v>
       </c>
       <c r="L45" t="n">
-        <v>638.5166244076759</v>
+        <v>638.516624407676</v>
       </c>
       <c r="M45" t="n">
-        <v>745.118783800251</v>
+        <v>745.1187838002511</v>
       </c>
       <c r="N45" t="n">
-        <v>764.8398608373046</v>
+        <v>764.8398608373047</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5431489342295</v>
+        <v>400.543148934229</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.62312704507636</v>
+        <v>54.62312704507637</v>
       </c>
       <c r="T45" t="n">
         <v>11.85328305889615</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1934703437251821</v>
+        <v>0.1934703437251822</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,43 +34517,43 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.465425363754778</v>
+        <v>2.465425363754779</v>
       </c>
       <c r="H46" t="n">
         <v>21.91987277956523</v>
       </c>
       <c r="I46" t="n">
-        <v>74.1420645754619</v>
+        <v>74.14206457546192</v>
       </c>
       <c r="J46" t="n">
-        <v>174.3055732174628</v>
+        <v>174.3055732174629</v>
       </c>
       <c r="K46" t="n">
         <v>286.4376013526006</v>
       </c>
       <c r="L46" t="n">
-        <v>366.5415127167786</v>
+        <v>366.5415127167787</v>
       </c>
       <c r="M46" t="n">
-        <v>386.4666322474876</v>
+        <v>386.4666322474877</v>
       </c>
       <c r="N46" t="n">
-        <v>377.2773195280383</v>
+        <v>377.2773195280384</v>
       </c>
       <c r="O46" t="n">
-        <v>348.4766686878119</v>
+        <v>348.476668687812</v>
       </c>
       <c r="P46" t="n">
         <v>298.1819912672142</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.4457547776842</v>
+        <v>206.4457547776843</v>
       </c>
       <c r="R46" t="n">
-        <v>110.8544895375557</v>
+        <v>110.8544895375558</v>
       </c>
       <c r="S46" t="n">
-        <v>42.96564020289008</v>
+        <v>42.96564020289009</v>
       </c>
       <c r="T46" t="n">
         <v>10.5340901905886</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34795,10 +34795,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419621</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676414</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35032,10 +35032,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>382.6222265215968</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>522.0158803980272</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.418016012253702</v>
+        <v>1.41801601225373</v>
       </c>
       <c r="J23" t="n">
         <v>285.4408439058734</v>
       </c>
       <c r="K23" t="n">
-        <v>479.052860640649</v>
+        <v>479.0528606406492</v>
       </c>
       <c r="L23" t="n">
-        <v>631.5819413035501</v>
+        <v>631.5819413035504</v>
       </c>
       <c r="M23" t="n">
-        <v>734.7459332636467</v>
+        <v>734.7459332636469</v>
       </c>
       <c r="N23" t="n">
-        <v>751.2953031209477</v>
+        <v>751.2953031209479</v>
       </c>
       <c r="O23" t="n">
-        <v>695.9568896545167</v>
+        <v>695.9568896545169</v>
       </c>
       <c r="P23" t="n">
         <v>559.1336079712962</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.2267138993506</v>
+        <v>371.2267138993507</v>
       </c>
       <c r="R23" t="n">
-        <v>129.6678321763157</v>
+        <v>129.6678321763158</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.72709988284528</v>
+        <v>1.727099882845295</v>
       </c>
       <c r="J24" t="n">
         <v>150.9986849456098</v>
       </c>
       <c r="K24" t="n">
-        <v>337.0250706876428</v>
+        <v>337.0250706876429</v>
       </c>
       <c r="L24" t="n">
-        <v>499.9622446278017</v>
+        <v>499.9622446278018</v>
       </c>
       <c r="M24" t="n">
-        <v>602.9847498782326</v>
+        <v>602.9847498782328</v>
       </c>
       <c r="N24" t="n">
-        <v>633.4981487539713</v>
+        <v>334.3622486175369</v>
       </c>
       <c r="O24" t="n">
-        <v>257.946904489785</v>
+        <v>557.0828046262189</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.94639310079006</v>
+        <v>80.94639310079009</v>
       </c>
       <c r="K25" t="n">
-        <v>264.1681095267177</v>
+        <v>264.1681095267178</v>
       </c>
       <c r="L25" t="n">
         <v>394.1315379770948</v>
       </c>
       <c r="M25" t="n">
-        <v>426.0505092093282</v>
+        <v>426.0505092093283</v>
       </c>
       <c r="N25" t="n">
-        <v>421.4094919072669</v>
+        <v>421.409491907267</v>
       </c>
       <c r="O25" t="n">
-        <v>373.0617966018516</v>
+        <v>373.0617966018517</v>
       </c>
       <c r="P25" t="n">
         <v>295.4605505321077</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.418016012253702</v>
+        <v>1.41801601225373</v>
       </c>
       <c r="J26" t="n">
         <v>285.4408439058734</v>
       </c>
       <c r="K26" t="n">
-        <v>479.052860640649</v>
+        <v>479.0528606406492</v>
       </c>
       <c r="L26" t="n">
-        <v>631.5819413035501</v>
+        <v>631.5819413035504</v>
       </c>
       <c r="M26" t="n">
-        <v>734.7459332636467</v>
+        <v>734.7459332636469</v>
       </c>
       <c r="N26" t="n">
-        <v>751.2953031209477</v>
+        <v>751.2953031209479</v>
       </c>
       <c r="O26" t="n">
-        <v>695.9568896545167</v>
+        <v>695.9568896545169</v>
       </c>
       <c r="P26" t="n">
         <v>559.1336079712962</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.2267138993506</v>
+        <v>371.2267138993507</v>
       </c>
       <c r="R26" t="n">
-        <v>129.6678321763157</v>
+        <v>129.6678321763158</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.72709988284528</v>
+        <v>1.727099882845295</v>
       </c>
       <c r="J27" t="n">
         <v>150.9986849456098</v>
       </c>
       <c r="K27" t="n">
-        <v>337.0250706876428</v>
+        <v>337.0250706876429</v>
       </c>
       <c r="L27" t="n">
-        <v>499.9622446278017</v>
+        <v>499.9622446278018</v>
       </c>
       <c r="M27" t="n">
-        <v>602.9847498782326</v>
+        <v>602.9847498782328</v>
       </c>
       <c r="N27" t="n">
-        <v>633.4981487539713</v>
+        <v>334.3622486175369</v>
       </c>
       <c r="O27" t="n">
-        <v>257.946904489785</v>
+        <v>557.0828046262189</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.94639310079006</v>
+        <v>80.94639310079009</v>
       </c>
       <c r="K28" t="n">
-        <v>264.1681095267177</v>
+        <v>264.1681095267178</v>
       </c>
       <c r="L28" t="n">
         <v>394.1315379770948</v>
       </c>
       <c r="M28" t="n">
-        <v>426.0505092093282</v>
+        <v>426.0505092093283</v>
       </c>
       <c r="N28" t="n">
-        <v>421.4094919072669</v>
+        <v>421.409491907267</v>
       </c>
       <c r="O28" t="n">
-        <v>373.0617966018516</v>
+        <v>373.0617966018517</v>
       </c>
       <c r="P28" t="n">
         <v>295.4605505321077</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.418016012253702</v>
+        <v>1.41801601225373</v>
       </c>
       <c r="J29" t="n">
         <v>285.4408439058734</v>
       </c>
       <c r="K29" t="n">
-        <v>479.052860640649</v>
+        <v>479.0528606406492</v>
       </c>
       <c r="L29" t="n">
-        <v>631.5819413035501</v>
+        <v>631.5819413035504</v>
       </c>
       <c r="M29" t="n">
-        <v>734.7459332636467</v>
+        <v>734.7459332636469</v>
       </c>
       <c r="N29" t="n">
-        <v>751.2953031209477</v>
+        <v>751.2953031209479</v>
       </c>
       <c r="O29" t="n">
-        <v>695.9568896545167</v>
+        <v>695.9568896545169</v>
       </c>
       <c r="P29" t="n">
         <v>559.1336079712962</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.2267138993506</v>
+        <v>371.2267138993507</v>
       </c>
       <c r="R29" t="n">
-        <v>129.6678321763157</v>
+        <v>129.6678321763158</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.72709988284528</v>
+        <v>1.727099882845295</v>
       </c>
       <c r="J30" t="n">
         <v>150.9986849456098</v>
       </c>
       <c r="K30" t="n">
-        <v>337.0250706876428</v>
+        <v>337.0250706876429</v>
       </c>
       <c r="L30" t="n">
-        <v>499.9622446278017</v>
+        <v>499.9622446278018</v>
       </c>
       <c r="M30" t="n">
-        <v>602.9847498782326</v>
+        <v>602.9847498782328</v>
       </c>
       <c r="N30" t="n">
-        <v>633.4981487539713</v>
+        <v>633.4981487539715</v>
       </c>
       <c r="O30" t="n">
-        <v>257.946904489785</v>
+        <v>257.9469044897846</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.94639310079006</v>
+        <v>80.94639310079009</v>
       </c>
       <c r="K31" t="n">
-        <v>264.1681095267177</v>
+        <v>264.1681095267178</v>
       </c>
       <c r="L31" t="n">
         <v>394.1315379770948</v>
       </c>
       <c r="M31" t="n">
-        <v>426.0505092093282</v>
+        <v>426.0505092093283</v>
       </c>
       <c r="N31" t="n">
-        <v>421.4094919072669</v>
+        <v>421.409491907267</v>
       </c>
       <c r="O31" t="n">
-        <v>373.0617966018516</v>
+        <v>373.0617966018517</v>
       </c>
       <c r="P31" t="n">
         <v>295.4605505321077</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.418016012253702</v>
+        <v>1.41801601225373</v>
       </c>
       <c r="J32" t="n">
         <v>285.4408439058734</v>
       </c>
       <c r="K32" t="n">
-        <v>479.052860640649</v>
+        <v>479.0528606406492</v>
       </c>
       <c r="L32" t="n">
-        <v>631.5819413035501</v>
+        <v>631.5819413035504</v>
       </c>
       <c r="M32" t="n">
-        <v>734.7459332636467</v>
+        <v>734.7459332636469</v>
       </c>
       <c r="N32" t="n">
-        <v>751.2953031209477</v>
+        <v>751.2953031209479</v>
       </c>
       <c r="O32" t="n">
-        <v>695.9568896545167</v>
+        <v>695.9568896545169</v>
       </c>
       <c r="P32" t="n">
         <v>559.1336079712962</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.2267138993506</v>
+        <v>371.2267138993507</v>
       </c>
       <c r="R32" t="n">
-        <v>129.6678321763157</v>
+        <v>129.6678321763158</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.72709988284528</v>
+        <v>1.727099882845295</v>
       </c>
       <c r="J33" t="n">
         <v>150.9986849456098</v>
       </c>
       <c r="K33" t="n">
-        <v>337.0250706876428</v>
+        <v>337.0250706876429</v>
       </c>
       <c r="L33" t="n">
-        <v>499.9622446278017</v>
+        <v>499.9622446278018</v>
       </c>
       <c r="M33" t="n">
-        <v>602.9847498782326</v>
+        <v>602.9847498782328</v>
       </c>
       <c r="N33" t="n">
-        <v>633.4981487539713</v>
+        <v>633.4981487539715</v>
       </c>
       <c r="O33" t="n">
-        <v>257.946904489785</v>
+        <v>257.9469044897846</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.94639310079006</v>
+        <v>80.94639310079009</v>
       </c>
       <c r="K34" t="n">
-        <v>264.1681095267177</v>
+        <v>264.1681095267178</v>
       </c>
       <c r="L34" t="n">
         <v>394.1315379770948</v>
       </c>
       <c r="M34" t="n">
-        <v>426.0505092093282</v>
+        <v>426.0505092093283</v>
       </c>
       <c r="N34" t="n">
-        <v>421.4094919072669</v>
+        <v>421.409491907267</v>
       </c>
       <c r="O34" t="n">
-        <v>373.0617966018516</v>
+        <v>373.0617966018517</v>
       </c>
       <c r="P34" t="n">
         <v>295.4605505321077</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.418016012253702</v>
+        <v>1.41801601225373</v>
       </c>
       <c r="J35" t="n">
         <v>285.4408439058734</v>
       </c>
       <c r="K35" t="n">
-        <v>479.052860640649</v>
+        <v>479.0528606406492</v>
       </c>
       <c r="L35" t="n">
-        <v>631.5819413035501</v>
+        <v>631.5819413035504</v>
       </c>
       <c r="M35" t="n">
-        <v>734.7459332636467</v>
+        <v>734.7459332636469</v>
       </c>
       <c r="N35" t="n">
-        <v>751.2953031209477</v>
+        <v>751.2953031209479</v>
       </c>
       <c r="O35" t="n">
-        <v>695.9568896545167</v>
+        <v>695.9568896545169</v>
       </c>
       <c r="P35" t="n">
         <v>559.1336079712962</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.2267138993506</v>
+        <v>371.2267138993507</v>
       </c>
       <c r="R35" t="n">
-        <v>129.6678321763157</v>
+        <v>129.6678321763158</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.72709988284528</v>
+        <v>1.727099882845295</v>
       </c>
       <c r="J36" t="n">
         <v>150.9986849456098</v>
       </c>
       <c r="K36" t="n">
-        <v>337.0250706876428</v>
+        <v>337.0250706876429</v>
       </c>
       <c r="L36" t="n">
-        <v>499.9622446278017</v>
+        <v>499.9622446278018</v>
       </c>
       <c r="M36" t="n">
-        <v>602.9847498782326</v>
+        <v>602.9847498782328</v>
       </c>
       <c r="N36" t="n">
-        <v>633.4981487539713</v>
+        <v>633.4981487539715</v>
       </c>
       <c r="O36" t="n">
-        <v>257.946904489785</v>
+        <v>257.9469044897846</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.94639310079006</v>
+        <v>80.94639310079009</v>
       </c>
       <c r="K37" t="n">
-        <v>264.1681095267177</v>
+        <v>264.1681095267178</v>
       </c>
       <c r="L37" t="n">
         <v>394.1315379770948</v>
       </c>
       <c r="M37" t="n">
-        <v>426.0505092093282</v>
+        <v>426.0505092093283</v>
       </c>
       <c r="N37" t="n">
-        <v>421.4094919072669</v>
+        <v>421.409491907267</v>
       </c>
       <c r="O37" t="n">
-        <v>373.0617966018516</v>
+        <v>373.0617966018517</v>
       </c>
       <c r="P37" t="n">
         <v>295.4605505321077</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.418016012253702</v>
+        <v>1.41801601225373</v>
       </c>
       <c r="J38" t="n">
         <v>285.4408439058734</v>
       </c>
       <c r="K38" t="n">
-        <v>479.052860640649</v>
+        <v>479.0528606406492</v>
       </c>
       <c r="L38" t="n">
-        <v>631.5819413035501</v>
+        <v>631.5819413035504</v>
       </c>
       <c r="M38" t="n">
-        <v>734.7459332636467</v>
+        <v>734.7459332636469</v>
       </c>
       <c r="N38" t="n">
-        <v>751.2953031209477</v>
+        <v>751.2953031209479</v>
       </c>
       <c r="O38" t="n">
-        <v>695.9568896545167</v>
+        <v>695.9568896545169</v>
       </c>
       <c r="P38" t="n">
         <v>559.1336079712962</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.2267138993506</v>
+        <v>371.2267138993507</v>
       </c>
       <c r="R38" t="n">
-        <v>129.6678321763157</v>
+        <v>129.6678321763158</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.72709988284528</v>
+        <v>1.727099882845295</v>
       </c>
       <c r="J39" t="n">
         <v>150.9986849456098</v>
       </c>
       <c r="K39" t="n">
-        <v>337.0250706876428</v>
+        <v>337.0250706876429</v>
       </c>
       <c r="L39" t="n">
-        <v>499.9622446278017</v>
+        <v>499.9622446278018</v>
       </c>
       <c r="M39" t="n">
-        <v>602.9847498782326</v>
+        <v>602.9847498782328</v>
       </c>
       <c r="N39" t="n">
-        <v>633.4981487539713</v>
+        <v>633.4981487539715</v>
       </c>
       <c r="O39" t="n">
-        <v>257.946904489785</v>
+        <v>257.9469044897846</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.94639310079006</v>
+        <v>80.94639310079009</v>
       </c>
       <c r="K40" t="n">
-        <v>264.1681095267177</v>
+        <v>264.1681095267178</v>
       </c>
       <c r="L40" t="n">
         <v>394.1315379770948</v>
       </c>
       <c r="M40" t="n">
-        <v>426.0505092093282</v>
+        <v>426.0505092093283</v>
       </c>
       <c r="N40" t="n">
-        <v>421.4094919072669</v>
+        <v>421.409491907267</v>
       </c>
       <c r="O40" t="n">
-        <v>373.0617966018516</v>
+        <v>373.0617966018517</v>
       </c>
       <c r="P40" t="n">
         <v>295.4605505321077</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.418016012253702</v>
+        <v>1.41801601225373</v>
       </c>
       <c r="J41" t="n">
         <v>285.4408439058734</v>
       </c>
       <c r="K41" t="n">
-        <v>479.052860640649</v>
+        <v>479.0528606406492</v>
       </c>
       <c r="L41" t="n">
-        <v>631.5819413035501</v>
+        <v>631.5819413035504</v>
       </c>
       <c r="M41" t="n">
-        <v>734.7459332636467</v>
+        <v>734.7459332636469</v>
       </c>
       <c r="N41" t="n">
-        <v>751.2953031209477</v>
+        <v>751.2953031209479</v>
       </c>
       <c r="O41" t="n">
-        <v>695.9568896545167</v>
+        <v>695.9568896545169</v>
       </c>
       <c r="P41" t="n">
         <v>559.1336079712962</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.2267138993506</v>
+        <v>371.2267138993507</v>
       </c>
       <c r="R41" t="n">
-        <v>129.6678321763157</v>
+        <v>129.6678321763158</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.72709988284528</v>
+        <v>1.727099882845295</v>
       </c>
       <c r="J42" t="n">
         <v>150.9986849456098</v>
       </c>
       <c r="K42" t="n">
-        <v>337.0250706876428</v>
+        <v>337.0250706876429</v>
       </c>
       <c r="L42" t="n">
-        <v>499.9622446278017</v>
+        <v>499.9622446278018</v>
       </c>
       <c r="M42" t="n">
-        <v>602.9847498782326</v>
+        <v>602.9847498782328</v>
       </c>
       <c r="N42" t="n">
-        <v>633.4981487539713</v>
+        <v>633.4981487539715</v>
       </c>
       <c r="O42" t="n">
-        <v>257.946904489785</v>
+        <v>257.9469044897846</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.94639310079006</v>
+        <v>80.94639310079009</v>
       </c>
       <c r="K43" t="n">
-        <v>264.1681095267177</v>
+        <v>264.1681095267178</v>
       </c>
       <c r="L43" t="n">
         <v>394.1315379770948</v>
       </c>
       <c r="M43" t="n">
-        <v>426.0505092093282</v>
+        <v>426.0505092093283</v>
       </c>
       <c r="N43" t="n">
-        <v>421.4094919072669</v>
+        <v>421.409491907267</v>
       </c>
       <c r="O43" t="n">
-        <v>373.0617966018516</v>
+        <v>373.0617966018517</v>
       </c>
       <c r="P43" t="n">
         <v>295.4605505321077</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.418016012253702</v>
+        <v>1.41801601225373</v>
       </c>
       <c r="J44" t="n">
         <v>285.4408439058734</v>
       </c>
       <c r="K44" t="n">
-        <v>479.052860640649</v>
+        <v>479.0528606406492</v>
       </c>
       <c r="L44" t="n">
-        <v>631.5819413035501</v>
+        <v>631.5819413035504</v>
       </c>
       <c r="M44" t="n">
-        <v>734.7459332636467</v>
+        <v>734.7459332636469</v>
       </c>
       <c r="N44" t="n">
-        <v>751.2953031209477</v>
+        <v>751.2953031209479</v>
       </c>
       <c r="O44" t="n">
-        <v>695.9568896545167</v>
+        <v>695.9568896545169</v>
       </c>
       <c r="P44" t="n">
         <v>559.1336079712962</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.2267138993506</v>
+        <v>371.2267138993507</v>
       </c>
       <c r="R44" t="n">
-        <v>129.6678321763157</v>
+        <v>129.6678321763158</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.72709988284528</v>
+        <v>1.727099882845295</v>
       </c>
       <c r="J45" t="n">
         <v>150.9986849456098</v>
       </c>
       <c r="K45" t="n">
-        <v>337.0250706876428</v>
+        <v>337.0250706876429</v>
       </c>
       <c r="L45" t="n">
-        <v>499.9622446278017</v>
+        <v>499.9622446278018</v>
       </c>
       <c r="M45" t="n">
-        <v>602.9847498782326</v>
+        <v>602.9847498782328</v>
       </c>
       <c r="N45" t="n">
-        <v>633.4981487539713</v>
+        <v>633.4981487539715</v>
       </c>
       <c r="O45" t="n">
-        <v>257.946904489785</v>
+        <v>257.9469044897846</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.94639310079006</v>
+        <v>80.94639310079009</v>
       </c>
       <c r="K46" t="n">
-        <v>264.1681095267177</v>
+        <v>264.1681095267178</v>
       </c>
       <c r="L46" t="n">
         <v>394.1315379770948</v>
       </c>
       <c r="M46" t="n">
-        <v>426.0505092093282</v>
+        <v>426.0505092093283</v>
       </c>
       <c r="N46" t="n">
-        <v>421.4094919072669</v>
+        <v>421.409491907267</v>
       </c>
       <c r="O46" t="n">
-        <v>373.0617966018516</v>
+        <v>373.0617966018517</v>
       </c>
       <c r="P46" t="n">
         <v>295.4605505321077</v>
